--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2172463.079168441</v>
+        <v>2171140.515356506</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5866991.03394878</v>
+        <v>5866991.033948785</v>
       </c>
     </row>
     <row r="8">
@@ -661,22 +661,22 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>4.739970650714299</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -712,10 +712,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>162.3882686062625</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>133.9779345588244</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -873,7 +873,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>141.556913181749</v>
       </c>
     </row>
     <row r="5">
@@ -904,19 +904,19 @@
         <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>233.0753283700914</v>
+        <v>249.6862411087307</v>
       </c>
       <c r="F5" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>178.2631698926535</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.7105246529183398</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,13 +1135,13 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
@@ -1150,10 +1150,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>76.33211384749302</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>265.6027952281062</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>142.5359303380062</v>
       </c>
       <c r="Y10" t="n">
-        <v>213.5952110672383</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1435,7 +1435,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>259.6255022263736</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>48.0173239035266</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>159.0051401068121</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,13 +1609,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>49.02746394088942</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
@@ -1627,7 +1627,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>347.6353852893851</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>116.9164035046652</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>119.2158337902832</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
@@ -1827,13 +1827,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1849,10 +1849,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>368.1319780410717</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -1897,10 +1897,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>27.77250173713467</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>92.7004959328211</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -2070,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>406.1634062037617</v>
       </c>
       <c r="G20" t="n">
         <v>404.6410012660961</v>
@@ -2134,13 +2134,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>209.3277174905216</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>11.97200389248249</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>183.8969098027373</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>71.42047856476334</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T23" t="n">
-        <v>201.4462948508507</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.4761865113606</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>79.8656656568978</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>116.2166797957706</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U25" t="n">
         <v>279.9659758737533</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2572,10 +2572,10 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H26" t="n">
-        <v>288.2570980008754</v>
+        <v>306.0455584304623</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.234755280439</v>
+        <v>122.5603156417014</v>
       </c>
       <c r="U26" t="n">
         <v>254.4761865113606</v>
@@ -2715,16 +2715,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>18.62548790105692</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>160.2222321506106</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -2809,10 +2809,10 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H29" t="n">
-        <v>79.34530250563819</v>
+        <v>306.0455584304623</v>
       </c>
       <c r="I29" t="n">
-        <v>78.88597920914968</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.234755280439</v>
+        <v>201.4462948508498</v>
       </c>
       <c r="U29" t="n">
         <v>254.4761865113606</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>112.8724405582094</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>183.1891117048806</v>
+        <v>38.5307033285212</v>
       </c>
       <c r="T31" t="n">
         <v>236.8250266956711</v>
       </c>
       <c r="U31" t="n">
-        <v>181.7763805442783</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3040,7 +3040,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>190.1198520010261</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>404.4697473695408</v>
@@ -3049,7 +3049,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I32" t="n">
-        <v>78.88597920914968</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>254.4761865113606</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>119.6389231920598</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>112.8724405582094</v>
+        <v>66.07896560696121</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>80.96594743848279</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>236.8250266956711</v>
@@ -3246,16 +3246,16 @@
         <v>279.9659758737533</v>
       </c>
       <c r="V34" t="n">
-        <v>222.6949175313588</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.234755280439</v>
+        <v>201.4462948508507</v>
       </c>
       <c r="U35" t="n">
-        <v>106.6619097956856</v>
+        <v>254.4761865113606</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>24.41224808872072</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>80.96594743848279</v>
       </c>
       <c r="S37" t="n">
-        <v>183.1891117048806</v>
+        <v>34.0430227199819</v>
       </c>
       <c r="T37" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -3489,7 +3489,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>258.3046911521711</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -3523,7 +3523,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.234755280439</v>
+        <v>122.5603156417023</v>
       </c>
       <c r="U38" t="n">
         <v>254.4761865113606</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T40" t="n">
         <v>236.8250266956711</v>
@@ -3720,16 +3720,16 @@
         <v>279.9659758737533</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>119.2719900784842</v>
       </c>
       <c r="Y40" t="n">
-        <v>61.84587293619883</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>78.88597920914967</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>130.0258162860864</v>
       </c>
       <c r="T41" t="n">
-        <v>71.42047856476493</v>
+        <v>219.234755280439</v>
       </c>
       <c r="U41" t="n">
-        <v>254.4761865113606</v>
+        <v>27.77593058653722</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3839,7 +3839,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I42" t="n">
-        <v>17.38633807794514</v>
+        <v>17.38633807794513</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>147.4283934324466</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>217.9354172723949</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>91.59089482039502</v>
       </c>
     </row>
     <row r="44">
@@ -3994,10 +3994,10 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H44" t="n">
-        <v>209.3711187917249</v>
+        <v>306.0455584304623</v>
       </c>
       <c r="I44" t="n">
-        <v>78.88597920914967</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.234755280439</v>
+        <v>201.4462948508507</v>
       </c>
       <c r="U44" t="n">
         <v>254.4761865113606</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -4152,10 +4152,10 @@
         <v>165.5010685613433</v>
       </c>
       <c r="H46" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>223.0971363644295</v>
       </c>
       <c r="U46" t="n">
-        <v>19.73879843441557</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1689.731938909628</v>
+        <v>1782.763876502378</v>
       </c>
       <c r="C2" t="n">
-        <v>1683.647752263302</v>
+        <v>1372.639285815648</v>
       </c>
       <c r="D2" t="n">
-        <v>1279.183822356362</v>
+        <v>968.1753559087084</v>
       </c>
       <c r="E2" t="n">
-        <v>864.843606873259</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="F2" t="n">
-        <v>443.8131948269465</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G2" t="n">
-        <v>439.0253456848109</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H2" t="n">
         <v>128.1168483125289</v>
@@ -4336,22 +4336,22 @@
         <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M2" t="n">
         <v>812.7934917636817</v>
       </c>
       <c r="N2" t="n">
-        <v>1329.636426430007</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O2" t="n">
-        <v>1767.09327468481</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4360,22 +4360,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1952.973206274203</v>
+        <v>1788.944652126463</v>
       </c>
       <c r="U2" t="n">
-        <v>1695.912714533713</v>
+        <v>1788.944652126463</v>
       </c>
       <c r="V2" t="n">
-        <v>1695.912714533713</v>
+        <v>1788.944652126463</v>
       </c>
       <c r="W2" t="n">
-        <v>1695.912714533713</v>
+        <v>1788.944652126463</v>
       </c>
       <c r="X2" t="n">
-        <v>1695.912714533713</v>
+        <v>1788.944652126463</v>
       </c>
       <c r="Y2" t="n">
-        <v>1695.912714533713</v>
+        <v>1788.944652126463</v>
       </c>
     </row>
     <row r="3">
@@ -4412,25 +4412,25 @@
         <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922355</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>234.5779431922355</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M3" t="n">
-        <v>234.5779431922355</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N3" t="n">
-        <v>704.7239474634683</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O3" t="n">
-        <v>1221.566882129794</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>774.9313507128002</v>
+        <v>488.6991486406494</v>
       </c>
       <c r="C4" t="n">
-        <v>774.9313507128002</v>
+        <v>317.6057762023659</v>
       </c>
       <c r="D4" t="n">
-        <v>774.9313507128002</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H4" t="n">
         <v>158.1111315252759</v>
@@ -4521,19 +4521,19 @@
         <v>1331.615243227154</v>
       </c>
       <c r="U4" t="n">
-        <v>1048.817095773278</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="V4" t="n">
-        <v>774.9313507128002</v>
+        <v>1057.729498166676</v>
       </c>
       <c r="W4" t="n">
-        <v>774.9313507128002</v>
+        <v>1057.729498166676</v>
       </c>
       <c r="X4" t="n">
-        <v>774.9313507128002</v>
+        <v>819.3856360263594</v>
       </c>
       <c r="Y4" t="n">
-        <v>774.9313507128002</v>
+        <v>676.3988550346937</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1020.329212244076</v>
+        <v>408.5107732503154</v>
       </c>
       <c r="C5" t="n">
-        <v>1014.24502559775</v>
+        <v>402.4265866039896</v>
       </c>
       <c r="D5" t="n">
-        <v>1013.821499731214</v>
+        <v>402.0030607374542</v>
       </c>
       <c r="E5" t="n">
-        <v>778.3918751149603</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F5" t="n">
-        <v>761.4018671090519</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G5" t="n">
-        <v>352.673583001884</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4570,49 +4570,49 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>176.0078249962696</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
-        <v>692.8507596625949</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M5" t="n">
-        <v>1209.69369432892</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N5" t="n">
-        <v>1726.536628995245</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O5" t="n">
-        <v>1726.536628995245</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P5" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>1831.193789739612</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>1831.193789739612</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="W5" t="n">
-        <v>1831.193789739612</v>
+        <v>1219.375350745852</v>
       </c>
       <c r="X5" t="n">
-        <v>1430.550391908565</v>
+        <v>818.7319529148049</v>
       </c>
       <c r="Y5" t="n">
-        <v>1430.550391908565</v>
+        <v>818.7319529148049</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>1014.414276561226</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>1025.008892784821</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O6" t="n">
-        <v>1541.851827451147</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P6" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.3531027449756</v>
+        <v>793.4728740876129</v>
       </c>
       <c r="C7" t="n">
-        <v>201.259730306692</v>
+        <v>793.4728740876129</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>633.978229410523</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>473.0674142788425</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>308.4362883894337</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>777.1526093285881</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="W7" t="n">
-        <v>777.1526093285881</v>
+        <v>1018.208572698848</v>
       </c>
       <c r="X7" t="n">
-        <v>777.1526093285881</v>
+        <v>1018.208572698848</v>
       </c>
       <c r="Y7" t="n">
-        <v>552.4169107173528</v>
+        <v>793.4728740876129</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1199.239803110925</v>
+        <v>1782.763876502378</v>
       </c>
       <c r="C8" t="n">
-        <v>1193.155616464599</v>
+        <v>1372.639285815648</v>
       </c>
       <c r="D8" t="n">
-        <v>1192.732090598063</v>
+        <v>1372.215759949112</v>
       </c>
       <c r="E8" t="n">
-        <v>1182.432279155364</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="F8" t="n">
-        <v>761.4018671090519</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G8" t="n">
-        <v>352.673583001884</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>558.6080202959273</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959273</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M8" t="n">
-        <v>1014.011766457887</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N8" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O8" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
         <v>2047.697635790537</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>1952.973206274203</v>
+        <v>2011.151136179604</v>
       </c>
       <c r="T8" t="n">
-        <v>1730.766722221062</v>
+        <v>1788.944652126463</v>
       </c>
       <c r="U8" t="n">
-        <v>1473.706230480572</v>
+        <v>1788.944652126463</v>
       </c>
       <c r="V8" t="n">
-        <v>1205.42057873501</v>
+        <v>1788.944652126463</v>
       </c>
       <c r="W8" t="n">
-        <v>1205.42057873501</v>
+        <v>1788.944652126463</v>
       </c>
       <c r="X8" t="n">
-        <v>1205.42057873501</v>
+        <v>1788.944652126463</v>
       </c>
       <c r="Y8" t="n">
-        <v>1205.42057873501</v>
+        <v>1788.944652126463</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>187.8810127971431</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>187.8810127971431</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>704.7239474634683</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M9" t="n">
-        <v>1221.566882129794</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N9" t="n">
-        <v>1221.566882129794</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O9" t="n">
-        <v>1738.409816796119</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P9" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.76508562960205</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C10" t="n">
-        <v>41.76508562960205</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76508562960205</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960205</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H10" t="n">
         <v>41.76508562960205</v>
@@ -4992,22 +4992,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1331.615243227154</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>1048.817095773278</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>774.9313507128002</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W10" t="n">
-        <v>495.8616862216745</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X10" t="n">
-        <v>257.5178240813579</v>
+        <v>1427.188295040345</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.76508562960205</v>
+        <v>1202.452596429109</v>
       </c>
     </row>
     <row r="11">
@@ -5044,7 +5044,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5068,19 +5068,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T11" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U11" t="n">
-        <v>4269.84331758475</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V11" t="n">
-        <v>3920.005762921231</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W11" t="n">
-        <v>3536.245462056399</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X11" t="n">
         <v>3273.997480009557</v>
@@ -5120,28 +5120,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>1210.13812587521</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M12" t="n">
-        <v>1210.13812587521</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N12" t="n">
-        <v>2083.796217986828</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O12" t="n">
-        <v>2110.173374178493</v>
+        <v>2106.908073983737</v>
       </c>
       <c r="P12" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>308.996436142379</v>
+        <v>755.7132317698615</v>
       </c>
       <c r="C13" t="n">
-        <v>260.4940887650794</v>
+        <v>584.619859331578</v>
       </c>
       <c r="D13" t="n">
-        <v>260.4940887650794</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="E13" t="n">
-        <v>260.4940887650794</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F13" t="n">
         <v>260.4940887650794</v>
@@ -5226,25 +5226,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1622.642594311473</v>
+        <v>1462.031341678329</v>
       </c>
       <c r="T13" t="n">
-        <v>1383.093855288175</v>
+        <v>1222.482602655032</v>
       </c>
       <c r="U13" t="n">
-        <v>1100.295707834299</v>
+        <v>1222.482602655032</v>
       </c>
       <c r="V13" t="n">
-        <v>826.4099627738212</v>
+        <v>1222.482602655032</v>
       </c>
       <c r="W13" t="n">
-        <v>547.3402982826956</v>
+        <v>943.4129381639059</v>
       </c>
       <c r="X13" t="n">
-        <v>308.996436142379</v>
+        <v>943.4129381639059</v>
       </c>
       <c r="Y13" t="n">
-        <v>308.996436142379</v>
+        <v>943.4129381639059</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2134.851174492981</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C14" t="n">
-        <v>1724.726583806251</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D14" t="n">
-        <v>1320.262653899312</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E14" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F14" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G14" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H14" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5281,7 +5281,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5317,13 +5317,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W14" t="n">
-        <v>3346.652425040428</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X14" t="n">
-        <v>2946.009027209381</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y14" t="n">
-        <v>2545.072354157471</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M15" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N15" t="n">
-        <v>1435.775802995229</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O15" t="n">
-        <v>2139.732893541123</v>
+        <v>2106.908073983737</v>
       </c>
       <c r="P15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>330.0097777178959</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="C16" t="n">
-        <v>330.0097777178959</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="D16" t="n">
-        <v>330.0097777178959</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="E16" t="n">
-        <v>330.0097777178959</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="F16" t="n">
-        <v>330.0097777178959</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G16" t="n">
-        <v>209.5897435862967</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H16" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T16" t="n">
-        <v>1111.429368843485</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U16" t="n">
-        <v>828.6312213896092</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V16" t="n">
-        <v>554.7454763291312</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W16" t="n">
-        <v>554.7454763291312</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="X16" t="n">
-        <v>554.7454763291312</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="Y16" t="n">
-        <v>330.0097777178959</v>
+        <v>360.9485301626057</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>1320.262653899312</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
         <v>1320.262653899312</v>
@@ -5545,22 +5545,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>741.8628115185547</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L18" t="n">
-        <v>741.8628115185547</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M18" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N18" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>418.7856387117121</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>418.7856387117121</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>418.7856387117121</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1537.369875986873</v>
+        <v>1594.589562253761</v>
       </c>
       <c r="T19" t="n">
-        <v>1537.369875986873</v>
+        <v>1355.040823230463</v>
       </c>
       <c r="U19" t="n">
-        <v>1254.571728532997</v>
+        <v>1072.242675776587</v>
       </c>
       <c r="V19" t="n">
-        <v>1160.93486395439</v>
+        <v>798.3569307161094</v>
       </c>
       <c r="W19" t="n">
-        <v>881.8651994632639</v>
+        <v>519.2872662249838</v>
       </c>
       <c r="X19" t="n">
-        <v>643.5213373229474</v>
+        <v>280.9434040846672</v>
       </c>
       <c r="Y19" t="n">
-        <v>418.7856387117121</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2462.839627293158</v>
+        <v>2452.075282119332</v>
       </c>
       <c r="C20" t="n">
-        <v>2052.715036606428</v>
+        <v>2041.950691432602</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.251106699488</v>
+        <v>1637.486761525663</v>
       </c>
       <c r="E20" t="n">
-        <v>1233.910891216385</v>
+        <v>1223.146546042559</v>
       </c>
       <c r="F20" t="n">
         <v>812.8804791700727</v>
@@ -5755,10 +5755,10 @@
         <v>347.4291691583776</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674172</v>
+        <v>885.5886702674175</v>
       </c>
       <c r="L20" t="n">
-        <v>1598.180070079655</v>
+        <v>1598.180070079656</v>
       </c>
       <c r="M20" t="n">
         <v>2374.49866107141</v>
@@ -5767,7 +5767,7 @@
         <v>3127.679677710028</v>
       </c>
       <c r="O20" t="n">
-        <v>3771.310534127133</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P20" t="n">
         <v>4300.467232046284</v>
@@ -5782,22 +5782,22 @@
         <v>4526.903809325241</v>
       </c>
       <c r="T20" t="n">
-        <v>4526.903809325241</v>
+        <v>4304.6973252721</v>
       </c>
       <c r="U20" t="n">
-        <v>4269.843317584751</v>
+        <v>4047.63683353161</v>
       </c>
       <c r="V20" t="n">
-        <v>4058.401178705436</v>
+        <v>4047.63683353161</v>
       </c>
       <c r="W20" t="n">
-        <v>3674.640877840605</v>
+        <v>3663.876532666779</v>
       </c>
       <c r="X20" t="n">
-        <v>3273.997480009557</v>
+        <v>3263.233134835731</v>
       </c>
       <c r="Y20" t="n">
-        <v>2873.060806957647</v>
+        <v>2862.296461783821</v>
       </c>
     </row>
     <row r="21">
@@ -5834,22 +5834,22 @@
         <v>93.24369769062281</v>
       </c>
       <c r="K21" t="n">
-        <v>93.24369769062281</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L21" t="n">
-        <v>93.24369769062281</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851895</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>697.5409622935802</v>
+        <v>916.6240469015422</v>
       </c>
       <c r="C22" t="n">
-        <v>526.4475898552967</v>
+        <v>745.5306744632587</v>
       </c>
       <c r="D22" t="n">
-        <v>526.4475898552967</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="E22" t="n">
-        <v>526.4475898552967</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F22" t="n">
-        <v>526.4475898552967</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G22" t="n">
-        <v>359.19719878084</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I22" t="n">
         <v>93.24369769062281</v>
@@ -5943,19 +5943,19 @@
         <v>1436.250826191383</v>
       </c>
       <c r="U22" t="n">
-        <v>1436.250826191383</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V22" t="n">
-        <v>1162.365081130905</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="W22" t="n">
-        <v>883.2954166397794</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="X22" t="n">
-        <v>697.5409622935802</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="Y22" t="n">
-        <v>697.5409622935802</v>
+        <v>928.716980126272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2465.07134031066</v>
+        <v>2537.213237850825</v>
       </c>
       <c r="C23" t="n">
-        <v>2054.94674962393</v>
+        <v>2127.088647164095</v>
       </c>
       <c r="D23" t="n">
-        <v>1650.482819716991</v>
+        <v>1722.624717257156</v>
       </c>
       <c r="E23" t="n">
-        <v>1236.142604233887</v>
+        <v>1308.284501774052</v>
       </c>
       <c r="F23" t="n">
-        <v>815.1121921875749</v>
+        <v>887.2540897277399</v>
       </c>
       <c r="G23" t="n">
-        <v>406.5568918143014</v>
+        <v>478.6987893544664</v>
       </c>
       <c r="H23" t="n">
-        <v>97.41996410676373</v>
+        <v>169.5618616469287</v>
       </c>
       <c r="I23" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J23" t="n">
-        <v>365.9950463732503</v>
+        <v>365.99504637325</v>
       </c>
       <c r="K23" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477953</v>
       </c>
       <c r="L23" t="n">
         <v>1665.067141547876</v>
@@ -6007,34 +6007,34 @@
         <v>3926.785084202962</v>
       </c>
       <c r="P23" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270213</v>
       </c>
       <c r="Q23" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344924</v>
       </c>
       <c r="R23" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="S23" t="n">
-        <v>4870.998205338186</v>
+        <v>4739.658996968401</v>
       </c>
       <c r="T23" t="n">
-        <v>4667.517099428236</v>
+        <v>4739.658996968401</v>
       </c>
       <c r="U23" t="n">
-        <v>4410.470446386458</v>
+        <v>4482.612343926623</v>
       </c>
       <c r="V23" t="n">
-        <v>4060.632891722939</v>
+        <v>4132.774789263103</v>
       </c>
       <c r="W23" t="n">
-        <v>3676.872590858107</v>
+        <v>3749.014488398272</v>
       </c>
       <c r="X23" t="n">
-        <v>3276.22919302706</v>
+        <v>3348.371090567224</v>
       </c>
       <c r="Y23" t="n">
-        <v>2875.29251997515</v>
+        <v>2947.434417515314</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I24" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J24" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K24" t="n">
-        <v>97.41996410676373</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L24" t="n">
-        <v>97.41996410676373</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="M24" t="n">
-        <v>514.8469186904414</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="N24" t="n">
-        <v>1412.097852308888</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="O24" t="n">
-        <v>2137.637783597812</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="P24" t="n">
-        <v>2137.637783597812</v>
+        <v>1776.213932090868</v>
       </c>
       <c r="Q24" t="n">
         <v>2137.637783597812</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>596.5969482033372</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="C25" t="n">
-        <v>425.5035757650537</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="D25" t="n">
-        <v>425.5035757650537</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="E25" t="n">
-        <v>264.5927606333731</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="F25" t="n">
-        <v>264.5927606333731</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="G25" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="H25" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I25" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J25" t="n">
-        <v>116.8792779475707</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K25" t="n">
         <v>280.267281314263</v>
@@ -6174,25 +6174,25 @@
         <v>1702.21247802243</v>
       </c>
       <c r="S25" t="n">
-        <v>1702.21247802243</v>
+        <v>1584.821892370137</v>
       </c>
       <c r="T25" t="n">
-        <v>1702.21247802243</v>
+        <v>1345.604693687641</v>
       </c>
       <c r="U25" t="n">
-        <v>1419.418562998437</v>
+        <v>1062.810778663647</v>
       </c>
       <c r="V25" t="n">
-        <v>1419.418562998437</v>
+        <v>788.9250336031691</v>
       </c>
       <c r="W25" t="n">
-        <v>1140.348898507311</v>
+        <v>509.8553691120434</v>
       </c>
       <c r="X25" t="n">
-        <v>902.0050363669945</v>
+        <v>509.8553691120434</v>
       </c>
       <c r="Y25" t="n">
-        <v>677.2693377557592</v>
+        <v>285.1196705008081</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2447.103198462592</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C26" t="n">
-        <v>2036.978607775863</v>
+        <v>2134.629556905899</v>
       </c>
       <c r="D26" t="n">
-        <v>1632.514677868923</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E26" t="n">
-        <v>1218.17446238582</v>
+        <v>1315.825411515857</v>
       </c>
       <c r="F26" t="n">
-        <v>797.1440503395074</v>
+        <v>894.7949994695443</v>
       </c>
       <c r="G26" t="n">
-        <v>388.5887499662339</v>
+        <v>486.2396990962708</v>
       </c>
       <c r="H26" t="n">
-        <v>97.41996410676374</v>
+        <v>177.1027713887331</v>
       </c>
       <c r="I26" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J26" t="n">
-        <v>365.9950463732503</v>
+        <v>365.99504637325</v>
       </c>
       <c r="K26" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477953</v>
       </c>
       <c r="L26" t="n">
         <v>1665.067141547876</v>
@@ -6238,40 +6238,40 @@
         <v>2471.155711445509</v>
       </c>
       <c r="N26" t="n">
-        <v>3254.588416372259</v>
+        <v>3254.588416372258</v>
       </c>
       <c r="O26" t="n">
-        <v>3926.785084202962</v>
+        <v>3926.78508420296</v>
       </c>
       <c r="P26" t="n">
-        <v>4480.322041270215</v>
+        <v>4480.322041270213</v>
       </c>
       <c r="Q26" t="n">
-        <v>4819.791607344926</v>
+        <v>4819.791607344924</v>
       </c>
       <c r="R26" t="n">
-        <v>4870.998205338187</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="S26" t="n">
-        <v>4870.998205338187</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="T26" t="n">
-        <v>4649.548957580168</v>
+        <v>4747.199906710204</v>
       </c>
       <c r="U26" t="n">
-        <v>4392.50230453839</v>
+        <v>4490.153253668426</v>
       </c>
       <c r="V26" t="n">
-        <v>4042.664749874871</v>
+        <v>4140.315699004907</v>
       </c>
       <c r="W26" t="n">
-        <v>3658.90444901004</v>
+        <v>3756.555398140076</v>
       </c>
       <c r="X26" t="n">
-        <v>3258.261051178992</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y26" t="n">
-        <v>2857.324378127082</v>
+        <v>2954.975327257119</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I27" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J27" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="K27" t="n">
-        <v>97.41996410676374</v>
+        <v>516.4015578916566</v>
       </c>
       <c r="L27" t="n">
-        <v>97.41996410676374</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="M27" t="n">
-        <v>963.3815547230743</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="N27" t="n">
-        <v>1860.632488341521</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="O27" t="n">
-        <v>2137.637783597812</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="P27" t="n">
-        <v>2137.637783597812</v>
+        <v>1776.213932090868</v>
       </c>
       <c r="Q27" t="n">
         <v>2137.637783597812</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>772.3635463857082</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="C28" t="n">
-        <v>601.2701739474247</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="D28" t="n">
-        <v>441.7755292703347</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="E28" t="n">
-        <v>280.8647141386542</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="F28" t="n">
-        <v>116.2335882492455</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="G28" t="n">
-        <v>116.2335882492455</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="H28" t="n">
-        <v>116.2335882492455</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I28" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J28" t="n">
-        <v>116.8792779475707</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K28" t="n">
-        <v>280.2672813142631</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L28" t="n">
         <v>551.4710044025715</v>
@@ -6411,25 +6411,25 @@
         <v>1702.21247802243</v>
       </c>
       <c r="S28" t="n">
-        <v>1702.21247802243</v>
+        <v>1540.37183948646</v>
       </c>
       <c r="T28" t="n">
-        <v>1702.21247802243</v>
+        <v>1301.154640803964</v>
       </c>
       <c r="U28" t="n">
-        <v>1702.21247802243</v>
+        <v>1301.154640803964</v>
       </c>
       <c r="V28" t="n">
-        <v>1702.21247802243</v>
+        <v>1027.268895743486</v>
       </c>
       <c r="W28" t="n">
-        <v>1423.142813531304</v>
+        <v>748.1992312523601</v>
       </c>
       <c r="X28" t="n">
-        <v>1184.798951390988</v>
+        <v>509.8553691120434</v>
       </c>
       <c r="Y28" t="n">
-        <v>960.0632527797526</v>
+        <v>285.1196705008081</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2315.763990092807</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C29" t="n">
-        <v>1905.639399406077</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D29" t="n">
-        <v>1501.175469499138</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E29" t="n">
-        <v>1086.835254016034</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F29" t="n">
-        <v>665.804841969722</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G29" t="n">
-        <v>257.2495415964485</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H29" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I29" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J29" t="n">
-        <v>365.99504637325</v>
+        <v>365.9950463732494</v>
       </c>
       <c r="K29" t="n">
-        <v>925.7208439477953</v>
+        <v>925.7208439477945</v>
       </c>
       <c r="L29" t="n">
         <v>1665.067141547876</v>
@@ -6475,40 +6475,40 @@
         <v>2471.155711445509</v>
       </c>
       <c r="N29" t="n">
-        <v>3254.588416372259</v>
+        <v>3254.588416372258</v>
       </c>
       <c r="O29" t="n">
-        <v>3926.785084202962</v>
+        <v>3926.785084202961</v>
       </c>
       <c r="P29" t="n">
         <v>4480.322041270214</v>
       </c>
       <c r="Q29" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344924</v>
       </c>
       <c r="R29" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="S29" t="n">
-        <v>4739.658996968402</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="T29" t="n">
-        <v>4518.209749210383</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U29" t="n">
-        <v>4261.163096168605</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V29" t="n">
-        <v>3911.325541505086</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W29" t="n">
-        <v>3527.565240640254</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X29" t="n">
-        <v>3126.921842809207</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y29" t="n">
-        <v>2725.985169757297</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I30" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J30" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K30" t="n">
-        <v>97.41996410676373</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L30" t="n">
-        <v>97.41996410676373</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="M30" t="n">
-        <v>963.3815547230743</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="N30" t="n">
-        <v>1860.632488341521</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="O30" t="n">
-        <v>2137.637783597812</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="P30" t="n">
-        <v>2137.637783597812</v>
+        <v>1776.213932090868</v>
       </c>
       <c r="Q30" t="n">
         <v>2137.637783597812</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4181.345208991405</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="C31" t="n">
-        <v>4181.345208991405</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="D31" t="n">
-        <v>4021.850564314316</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="E31" t="n">
-        <v>3860.939749182635</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="F31" t="n">
-        <v>3696.308623293226</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="G31" t="n">
-        <v>3529.135826766617</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="H31" t="n">
-        <v>3380.218257642934</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="I31" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J31" t="n">
-        <v>3285.665005263327</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K31" t="n">
-        <v>3449.053008630019</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L31" t="n">
-        <v>3720.256731718328</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M31" t="n">
-        <v>4021.442036604621</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N31" t="n">
-        <v>4313.918606801931</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O31" t="n">
-        <v>4584.22859779507</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P31" t="n">
-        <v>4799.101990217908</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q31" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R31" t="n">
-        <v>4789.214420046789</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S31" t="n">
-        <v>4604.174913274182</v>
+        <v>1663.292575670388</v>
       </c>
       <c r="T31" t="n">
-        <v>4364.957714591686</v>
+        <v>1424.075376987892</v>
       </c>
       <c r="U31" t="n">
-        <v>4181.345208991405</v>
+        <v>1141.281461963899</v>
       </c>
       <c r="V31" t="n">
-        <v>4181.345208991405</v>
+        <v>1141.281461963899</v>
       </c>
       <c r="W31" t="n">
-        <v>4181.345208991405</v>
+        <v>862.2117974727735</v>
       </c>
       <c r="X31" t="n">
-        <v>4181.345208991405</v>
+        <v>623.8679353324569</v>
       </c>
       <c r="Y31" t="n">
-        <v>4181.345208991405</v>
+        <v>399.1322367212217</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2315.763990092808</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C32" t="n">
-        <v>1905.639399406078</v>
+        <v>2134.629556905899</v>
       </c>
       <c r="D32" t="n">
-        <v>1501.175469499139</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E32" t="n">
-        <v>1086.835254016035</v>
+        <v>1315.825411515857</v>
       </c>
       <c r="F32" t="n">
         <v>894.7949994695443</v>
@@ -6697,13 +6697,13 @@
         <v>177.1027713887331</v>
       </c>
       <c r="I32" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J32" t="n">
-        <v>365.9950463732503</v>
+        <v>365.99504637325</v>
       </c>
       <c r="K32" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477953</v>
       </c>
       <c r="L32" t="n">
         <v>1665.067141547876</v>
@@ -6715,37 +6715,37 @@
         <v>3254.588416372259</v>
       </c>
       <c r="O32" t="n">
-        <v>3926.785084202962</v>
+        <v>3926.78508420296</v>
       </c>
       <c r="P32" t="n">
-        <v>4480.322041270215</v>
+        <v>4480.322041270213</v>
       </c>
       <c r="Q32" t="n">
-        <v>4819.791607344926</v>
+        <v>4819.791607344924</v>
       </c>
       <c r="R32" t="n">
-        <v>4870.998205338187</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="S32" t="n">
-        <v>4739.658996968403</v>
+        <v>4739.658996968401</v>
       </c>
       <c r="T32" t="n">
-        <v>4518.209749210384</v>
+        <v>4518.209749210382</v>
       </c>
       <c r="U32" t="n">
-        <v>4261.163096168606</v>
+        <v>4261.163096168604</v>
       </c>
       <c r="V32" t="n">
-        <v>3911.325541505087</v>
+        <v>4140.315699004907</v>
       </c>
       <c r="W32" t="n">
-        <v>3527.565240640255</v>
+        <v>3756.555398140076</v>
       </c>
       <c r="X32" t="n">
-        <v>3126.921842809208</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y32" t="n">
-        <v>2725.985169757298</v>
+        <v>2954.975327257119</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I33" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J33" t="n">
-        <v>97.41996410676374</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K33" t="n">
-        <v>567.8743197625565</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L33" t="n">
-        <v>567.8743197625565</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M33" t="n">
-        <v>1433.835910378867</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N33" t="n">
-        <v>1433.835910378867</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O33" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P33" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q33" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R33" t="n">
         <v>2137.637783597812</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>688.4337111091506</v>
+        <v>164.1663940127851</v>
       </c>
       <c r="C34" t="n">
-        <v>688.4337111091506</v>
+        <v>164.1663940127851</v>
       </c>
       <c r="D34" t="n">
-        <v>688.4337111091506</v>
+        <v>164.1663940127851</v>
       </c>
       <c r="E34" t="n">
-        <v>527.5228959774702</v>
+        <v>164.1663940127851</v>
       </c>
       <c r="F34" t="n">
-        <v>527.5228959774702</v>
+        <v>164.1663940127851</v>
       </c>
       <c r="G34" t="n">
-        <v>360.3500994508607</v>
+        <v>164.1663940127851</v>
       </c>
       <c r="H34" t="n">
-        <v>211.4325303271773</v>
+        <v>164.1663940127851</v>
       </c>
       <c r="I34" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J34" t="n">
-        <v>116.8792779475707</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K34" t="n">
-        <v>280.2672813142631</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L34" t="n">
         <v>551.4710044025715</v>
@@ -6882,28 +6882,28 @@
         <v>1702.21247802243</v>
       </c>
       <c r="R34" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S34" t="n">
-        <v>1435.389185958427</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T34" t="n">
-        <v>1196.171987275931</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U34" t="n">
-        <v>913.3780722519373</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V34" t="n">
-        <v>688.4337111091506</v>
+        <v>906.3156192554627</v>
       </c>
       <c r="W34" t="n">
-        <v>688.4337111091506</v>
+        <v>627.2459547643371</v>
       </c>
       <c r="X34" t="n">
-        <v>688.4337111091506</v>
+        <v>388.9020926240204</v>
       </c>
       <c r="Y34" t="n">
-        <v>688.4337111091506</v>
+        <v>164.1663940127851</v>
       </c>
     </row>
     <row r="35">
@@ -6937,25 +6937,25 @@
         <v>97.41996410676373</v>
       </c>
       <c r="J35" t="n">
-        <v>365.99504637325</v>
+        <v>365.9950463732503</v>
       </c>
       <c r="K35" t="n">
-        <v>925.7208439477953</v>
+        <v>925.7208439477959</v>
       </c>
       <c r="L35" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547877</v>
       </c>
       <c r="M35" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N35" t="n">
         <v>3254.588416372259</v>
       </c>
       <c r="O35" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.785084202962</v>
       </c>
       <c r="P35" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270215</v>
       </c>
       <c r="Q35" t="n">
         <v>4819.791607344925</v>
@@ -6964,10 +6964,10 @@
         <v>4870.998205338186</v>
       </c>
       <c r="S35" t="n">
-        <v>4739.658996968402</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="T35" t="n">
-        <v>4518.209749210383</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U35" t="n">
         <v>4410.470446386458</v>
@@ -7019,22 +7019,22 @@
         <v>97.41996410676373</v>
       </c>
       <c r="K36" t="n">
-        <v>97.41996410676373</v>
+        <v>567.8743197625565</v>
       </c>
       <c r="L36" t="n">
-        <v>97.41996410676373</v>
+        <v>1248.658669000105</v>
       </c>
       <c r="M36" t="n">
-        <v>514.8469186904414</v>
+        <v>1248.658669000105</v>
       </c>
       <c r="N36" t="n">
-        <v>1412.097852308888</v>
+        <v>1248.658669000105</v>
       </c>
       <c r="O36" t="n">
-        <v>2137.637783597812</v>
+        <v>1248.658669000105</v>
       </c>
       <c r="P36" t="n">
-        <v>2137.637783597812</v>
+        <v>1776.213932090868</v>
       </c>
       <c r="Q36" t="n">
         <v>2137.637783597812</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>122.078800560017</v>
+        <v>845.38668514904</v>
       </c>
       <c r="C37" t="n">
-        <v>122.078800560017</v>
+        <v>845.38668514904</v>
       </c>
       <c r="D37" t="n">
-        <v>122.078800560017</v>
+        <v>685.8920404719499</v>
       </c>
       <c r="E37" t="n">
-        <v>97.41996410676373</v>
+        <v>524.9812253402695</v>
       </c>
       <c r="F37" t="n">
-        <v>97.41996410676373</v>
+        <v>360.3500994508607</v>
       </c>
       <c r="G37" t="n">
-        <v>97.41996410676373</v>
+        <v>360.3500994508607</v>
       </c>
       <c r="H37" t="n">
-        <v>97.41996410676373</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="I37" t="n">
         <v>97.41996410676373</v>
       </c>
       <c r="J37" t="n">
-        <v>116.8792779475707</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K37" t="n">
         <v>280.267281314263</v>
@@ -7122,25 +7122,25 @@
         <v>1620.428692731033</v>
       </c>
       <c r="S37" t="n">
-        <v>1435.389185958427</v>
+        <v>1586.041801094688</v>
       </c>
       <c r="T37" t="n">
-        <v>1196.171987275931</v>
+        <v>1586.041801094688</v>
       </c>
       <c r="U37" t="n">
-        <v>913.3780722519373</v>
+        <v>1586.041801094688</v>
       </c>
       <c r="V37" t="n">
-        <v>639.4923271914593</v>
+        <v>1312.15605603421</v>
       </c>
       <c r="W37" t="n">
-        <v>360.4226627003336</v>
+        <v>1033.086391543084</v>
       </c>
       <c r="X37" t="n">
-        <v>122.078800560017</v>
+        <v>1033.086391543084</v>
       </c>
       <c r="Y37" t="n">
-        <v>122.078800560017</v>
+        <v>1033.086391543084</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2465.07134031066</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C38" t="n">
-        <v>2054.94674962393</v>
+        <v>2134.629556905899</v>
       </c>
       <c r="D38" t="n">
-        <v>1650.482819716991</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E38" t="n">
-        <v>1236.142604233887</v>
+        <v>1315.825411515857</v>
       </c>
       <c r="F38" t="n">
-        <v>815.1121921875749</v>
+        <v>894.7949994695443</v>
       </c>
       <c r="G38" t="n">
-        <v>406.5568918143014</v>
+        <v>486.2396990962708</v>
       </c>
       <c r="H38" t="n">
-        <v>97.41996410676374</v>
+        <v>177.1027713887331</v>
       </c>
       <c r="I38" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J38" t="n">
         <v>365.9950463732503</v>
       </c>
       <c r="K38" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477959</v>
       </c>
       <c r="L38" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547877</v>
       </c>
       <c r="M38" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N38" t="n">
         <v>3254.588416372259</v>
@@ -7195,31 +7195,31 @@
         <v>4480.322041270215</v>
       </c>
       <c r="Q38" t="n">
-        <v>4819.791607344926</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R38" t="n">
-        <v>4870.998205338187</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="S38" t="n">
-        <v>4739.658996968403</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="T38" t="n">
-        <v>4518.209749210384</v>
+        <v>4747.199906710204</v>
       </c>
       <c r="U38" t="n">
-        <v>4261.163096168606</v>
+        <v>4490.153253668426</v>
       </c>
       <c r="V38" t="n">
-        <v>3911.325541505087</v>
+        <v>4140.315699004907</v>
       </c>
       <c r="W38" t="n">
-        <v>3527.565240640255</v>
+        <v>3756.555398140076</v>
       </c>
       <c r="X38" t="n">
-        <v>3126.921842809208</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y38" t="n">
-        <v>2725.985169757298</v>
+        <v>2954.975327257119</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I39" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J39" t="n">
-        <v>97.41996410676374</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K39" t="n">
-        <v>97.41996410676374</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L39" t="n">
-        <v>97.41996410676374</v>
+        <v>1412.097852308888</v>
       </c>
       <c r="M39" t="n">
-        <v>264.7433142406995</v>
+        <v>1412.097852308888</v>
       </c>
       <c r="N39" t="n">
-        <v>1161.994247859146</v>
+        <v>1412.097852308888</v>
       </c>
       <c r="O39" t="n">
-        <v>1161.994247859146</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="P39" t="n">
-        <v>1741.022272820809</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="Q39" t="n">
-        <v>2102.446124327753</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="R39" t="n">
         <v>2137.637783597812</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>600.3172589610654</v>
+        <v>376.063656216586</v>
       </c>
       <c r="C40" t="n">
-        <v>429.2238865227819</v>
+        <v>376.063656216586</v>
       </c>
       <c r="D40" t="n">
-        <v>429.2238865227819</v>
+        <v>376.063656216586</v>
       </c>
       <c r="E40" t="n">
-        <v>429.2238865227819</v>
+        <v>376.063656216586</v>
       </c>
       <c r="F40" t="n">
-        <v>264.5927606333731</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="G40" t="n">
-        <v>97.41996410676374</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="H40" t="n">
-        <v>97.41996410676374</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="I40" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J40" t="n">
-        <v>116.8792779475707</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K40" t="n">
-        <v>280.2672813142631</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L40" t="n">
         <v>551.4710044025715</v>
@@ -7359,25 +7359,25 @@
         <v>1702.21247802243</v>
       </c>
       <c r="S40" t="n">
-        <v>1702.21247802243</v>
+        <v>1517.172971249823</v>
       </c>
       <c r="T40" t="n">
-        <v>1462.995279339934</v>
+        <v>1277.955772567327</v>
       </c>
       <c r="U40" t="n">
-        <v>1180.201364315941</v>
+        <v>995.161857543334</v>
       </c>
       <c r="V40" t="n">
-        <v>1180.201364315941</v>
+        <v>721.276112482856</v>
       </c>
       <c r="W40" t="n">
-        <v>901.1316998248151</v>
+        <v>721.276112482856</v>
       </c>
       <c r="X40" t="n">
-        <v>662.7878376844985</v>
+        <v>600.7993548278214</v>
       </c>
       <c r="Y40" t="n">
-        <v>600.3172589610654</v>
+        <v>376.063656216586</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2465.07134031066</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C41" t="n">
-        <v>2054.94674962393</v>
+        <v>2134.629556905899</v>
       </c>
       <c r="D41" t="n">
-        <v>1650.482819716991</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E41" t="n">
-        <v>1236.142604233887</v>
+        <v>1315.825411515857</v>
       </c>
       <c r="F41" t="n">
-        <v>815.1121921875749</v>
+        <v>894.7949994695443</v>
       </c>
       <c r="G41" t="n">
-        <v>406.5568918143014</v>
+        <v>486.2396990962708</v>
       </c>
       <c r="H41" t="n">
-        <v>97.41996410676374</v>
+        <v>177.1027713887331</v>
       </c>
       <c r="I41" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J41" t="n">
-        <v>365.9950463732503</v>
+        <v>365.9950463732501</v>
       </c>
       <c r="K41" t="n">
         <v>925.7208439477954</v>
       </c>
       <c r="L41" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547877</v>
       </c>
       <c r="M41" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N41" t="n">
         <v>3254.588416372259</v>
       </c>
       <c r="O41" t="n">
-        <v>3926.785084202962</v>
+        <v>3926.785084202961</v>
       </c>
       <c r="P41" t="n">
         <v>4480.322041270215</v>
       </c>
       <c r="Q41" t="n">
-        <v>4819.791607344926</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R41" t="n">
-        <v>4870.998205338187</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="S41" t="n">
-        <v>4739.658996968403</v>
+        <v>4739.658996968402</v>
       </c>
       <c r="T41" t="n">
-        <v>4667.517099428236</v>
+        <v>4518.209749210383</v>
       </c>
       <c r="U41" t="n">
-        <v>4410.470446386458</v>
+        <v>4490.153253668426</v>
       </c>
       <c r="V41" t="n">
-        <v>4060.632891722939</v>
+        <v>4140.315699004907</v>
       </c>
       <c r="W41" t="n">
-        <v>3676.872590858107</v>
+        <v>3756.555398140076</v>
       </c>
       <c r="X41" t="n">
-        <v>3276.22919302706</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y41" t="n">
-        <v>2875.29251997515</v>
+        <v>2954.975327257119</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I42" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J42" t="n">
-        <v>97.41996410676374</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K42" t="n">
-        <v>97.41996410676374</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L42" t="n">
-        <v>97.41996410676374</v>
+        <v>1197.185907129205</v>
       </c>
       <c r="M42" t="n">
-        <v>963.3815547230743</v>
+        <v>1197.185907129205</v>
       </c>
       <c r="N42" t="n">
-        <v>1523.41809936609</v>
+        <v>1197.185907129205</v>
       </c>
       <c r="O42" t="n">
-        <v>1523.41809936609</v>
+        <v>1197.185907129205</v>
       </c>
       <c r="P42" t="n">
-        <v>2102.446124327753</v>
+        <v>1776.213932090868</v>
       </c>
       <c r="Q42" t="n">
-        <v>2102.446124327753</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="R42" t="n">
         <v>2137.637783597812</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1069.640287893519</v>
+        <v>1183.652854113933</v>
       </c>
       <c r="C43" t="n">
-        <v>898.5469154552359</v>
+        <v>1012.55948167565</v>
       </c>
       <c r="D43" t="n">
-        <v>739.0522707781458</v>
+        <v>853.0648369985595</v>
       </c>
       <c r="E43" t="n">
-        <v>578.1414556464654</v>
+        <v>692.1540218668789</v>
       </c>
       <c r="F43" t="n">
-        <v>413.5103297570566</v>
+        <v>527.5228959774702</v>
       </c>
       <c r="G43" t="n">
-        <v>246.3375332304472</v>
+        <v>360.3500994508607</v>
       </c>
       <c r="H43" t="n">
-        <v>97.41996410676374</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="I43" t="n">
-        <v>97.41996410676374</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J43" t="n">
         <v>116.8792779475707</v>
@@ -7611,10 +7611,10 @@
         <v>1702.21247802243</v>
       </c>
       <c r="X43" t="n">
-        <v>1482.075692898799</v>
+        <v>1463.868615882114</v>
       </c>
       <c r="Y43" t="n">
-        <v>1257.339994287564</v>
+        <v>1371.352560507977</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2447.103198462592</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C44" t="n">
-        <v>2036.978607775862</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D44" t="n">
-        <v>1632.514677868922</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E44" t="n">
-        <v>1218.174462385819</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F44" t="n">
-        <v>797.1440503395065</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G44" t="n">
-        <v>388.588749966233</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H44" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I44" t="n">
         <v>97.41996410676373</v>
@@ -7654,19 +7654,19 @@
         <v>925.7208439477954</v>
       </c>
       <c r="L44" t="n">
-        <v>1665.067141547877</v>
+        <v>1665.067141547876</v>
       </c>
       <c r="M44" t="n">
-        <v>2471.15571144551</v>
+        <v>2471.155711445509</v>
       </c>
       <c r="N44" t="n">
-        <v>3254.588416372259</v>
+        <v>3254.588416372258</v>
       </c>
       <c r="O44" t="n">
         <v>3926.785084202961</v>
       </c>
       <c r="P44" t="n">
-        <v>4480.322041270215</v>
+        <v>4480.322041270214</v>
       </c>
       <c r="Q44" t="n">
         <v>4819.791607344925</v>
@@ -7678,22 +7678,22 @@
         <v>4870.998205338186</v>
       </c>
       <c r="T44" t="n">
-        <v>4649.548957580168</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U44" t="n">
-        <v>4392.50230453839</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V44" t="n">
-        <v>4042.66474987487</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W44" t="n">
-        <v>3658.904449010039</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X44" t="n">
-        <v>3258.261051178991</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y44" t="n">
-        <v>2857.324378127081</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="45">
@@ -7733,22 +7733,22 @@
         <v>769.2575309382119</v>
       </c>
       <c r="L45" t="n">
-        <v>1412.097852308888</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M45" t="n">
-        <v>1412.097852308888</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N45" t="n">
-        <v>1412.097852308888</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O45" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P45" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q45" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R45" t="n">
         <v>2137.637783597812</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4352.438581429689</v>
+        <v>600.3172589610654</v>
       </c>
       <c r="C46" t="n">
-        <v>4181.345208991405</v>
+        <v>429.2238865227819</v>
       </c>
       <c r="D46" t="n">
-        <v>4021.850564314316</v>
+        <v>429.2238865227819</v>
       </c>
       <c r="E46" t="n">
-        <v>3860.939749182635</v>
+        <v>429.2238865227819</v>
       </c>
       <c r="F46" t="n">
-        <v>3696.308623293226</v>
+        <v>264.5927606333731</v>
       </c>
       <c r="G46" t="n">
-        <v>3529.135826766617</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H46" t="n">
-        <v>3380.218257642934</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I46" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J46" t="n">
-        <v>3285.665005263327</v>
+        <v>116.8792779475707</v>
       </c>
       <c r="K46" t="n">
-        <v>3449.053008630019</v>
+        <v>280.2672813142631</v>
       </c>
       <c r="L46" t="n">
-        <v>3720.256731718328</v>
+        <v>551.4710044025715</v>
       </c>
       <c r="M46" t="n">
-        <v>4021.442036604621</v>
+        <v>852.656309288865</v>
       </c>
       <c r="N46" t="n">
-        <v>4313.918606801931</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O46" t="n">
-        <v>4584.22859779507</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P46" t="n">
-        <v>4799.101990217908</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q46" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R46" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S46" t="n">
-        <v>4870.998205338186</v>
+        <v>1517.172971249824</v>
       </c>
       <c r="T46" t="n">
-        <v>4870.998205338186</v>
+        <v>1291.822328457471</v>
       </c>
       <c r="U46" t="n">
-        <v>4851.060025101403</v>
+        <v>1291.822328457471</v>
       </c>
       <c r="V46" t="n">
-        <v>4577.174280040925</v>
+        <v>1291.822328457471</v>
       </c>
       <c r="W46" t="n">
-        <v>4577.174280040925</v>
+        <v>1012.752663966345</v>
       </c>
       <c r="X46" t="n">
-        <v>4577.174280040925</v>
+        <v>1012.752663966345</v>
       </c>
       <c r="Y46" t="n">
-        <v>4352.438581429689</v>
+        <v>788.0169653551097</v>
       </c>
     </row>
   </sheetData>
@@ -7984,25 +7984,25 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>535.0653799235644</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,19 +8060,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>562.8045877599696</v>
       </c>
       <c r="M3" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>528.0883472030761</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
         <v>576.3232053728293</v>
@@ -8081,7 +8081,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,28 +8218,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>224.7351163062146</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>594.6194560602019</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,28 +8294,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>63.89502594283636</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>560.949698951924</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8452,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>490.0456851936601</v>
       </c>
       <c r="L8" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>553.2940084590249</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
         <v>615.2533459958087</v>
@@ -8473,7 +8473,7 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8531,16 +8531,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>198.9610844237788</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
@@ -8549,13 +8549,13 @@
         <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>560.9496989519245</v>
       </c>
       <c r="Q9" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>516.2361426485535</v>
@@ -8780,19 +8780,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>84.39507111279303</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>87.41601839410231</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
         <v>723.8803540323523</v>
@@ -9017,13 +9017,13 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>741.5205988334646</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>87.41601839410231</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9242,28 +9242,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>758.4864973512193</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9482,25 +9482,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9716,28 +9716,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>42.71231595856356</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>41.02972279421729</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>36.21939520654512</v>
+        <v>468.4702802479529</v>
       </c>
       <c r="M24" t="n">
-        <v>455.9909955181485</v>
+        <v>34.34760704978726</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654936</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461622</v>
       </c>
       <c r="P24" t="n">
-        <v>36.76253149458872</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.99626817861588</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>53.31116889588058</v>
@@ -9953,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>42.71231595856356</v>
+        <v>42.71231595856358</v>
       </c>
       <c r="K27" t="n">
-        <v>41.02972279421729</v>
+        <v>464.2434538900687</v>
       </c>
       <c r="L27" t="n">
-        <v>36.21939520654512</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978726</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654936</v>
       </c>
       <c r="O27" t="n">
-        <v>315.7539583063247</v>
+        <v>35.95062976461622</v>
       </c>
       <c r="P27" t="n">
-        <v>36.76253149458872</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>44.99626817861588</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>53.31116889588058</v>
@@ -10190,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>42.71231595856356</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>41.02972279421729</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>36.21939520654512</v>
+        <v>36.21939520654514</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978726</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654936</v>
       </c>
       <c r="O30" t="n">
-        <v>315.7539583063247</v>
+        <v>468.201514806024</v>
       </c>
       <c r="P30" t="n">
-        <v>36.76253149458872</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>44.99626817861588</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>53.31116889588058</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>42.71231595856356</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>36.21939520654512</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978726</v>
       </c>
       <c r="N33" t="n">
-        <v>29.36224035654932</v>
+        <v>29.36224035654936</v>
       </c>
       <c r="O33" t="n">
-        <v>746.8616128140559</v>
+        <v>35.95062976461622</v>
       </c>
       <c r="P33" t="n">
-        <v>36.76253149458872</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>44.99626817861588</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>53.31116889588058</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,28 +10664,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>42.71231595856356</v>
+        <v>42.71231595856358</v>
       </c>
       <c r="K36" t="n">
-        <v>41.02972279421729</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>36.21939520654512</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>455.9909955181485</v>
+        <v>34.34760704978726</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654936</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461622</v>
       </c>
       <c r="P36" t="n">
-        <v>36.76253149458872</v>
+        <v>569.6466356266726</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.99626817861588</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>53.31116889588058</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>42.71231595856356</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>41.02972279421729</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>36.21939520654512</v>
+        <v>685.5530531567231</v>
       </c>
       <c r="M39" t="n">
-        <v>203.3610920335607</v>
+        <v>34.34760704978726</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654936</v>
       </c>
       <c r="O39" t="n">
-        <v>35.95062976461618</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
-        <v>621.6393243851574</v>
+        <v>36.76253149458874</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>44.99626817861589</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>53.31116889588058</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>42.71231595856356</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>41.02972279421729</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>36.21939520654512</v>
+        <v>468.4702802479526</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978717</v>
       </c>
       <c r="N42" t="n">
-        <v>595.0557197939388</v>
+        <v>29.36224035654928</v>
       </c>
       <c r="O42" t="n">
-        <v>35.95062976461618</v>
+        <v>35.95062976461614</v>
       </c>
       <c r="P42" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>44.99626817861588</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>53.31116889588057</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>685.553053156723</v>
+        <v>432.923149672135</v>
       </c>
       <c r="M45" t="n">
         <v>34.34760704978717</v>
@@ -11390,16 +11390,16 @@
         <v>29.36224035654928</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461614</v>
       </c>
       <c r="P45" t="n">
-        <v>36.76253149458869</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.99626817861586</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>53.31116889588057</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>137.0114616263634</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>121.3651148103741</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>25.52271033207677</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23497,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>32.28731256679799</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>40.98329472565389</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
@@ -23667,13 +23667,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>46.36205337342879</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23737,10 +23737,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>32.28731256679833</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23785,10 +23785,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>187.994239071985</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -23898,10 +23898,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>156.7553487017542</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>178.4463916770522</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23980,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>10.65670172208758</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24022,13 +24022,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>137.0114616263625</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>173.8507054376215</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>52.06351371617617</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>78.88597920914968</v>
+        <v>7.465500644386353</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>17.7884604295883</v>
+        <v>219.234755280439</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9570436732061</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H25" t="n">
         <v>147.4283934324466</v>
@@ -24414,22 +24414,22 @@
         <v>80.96594743848279</v>
       </c>
       <c r="S25" t="n">
-        <v>183.1891117048806</v>
+        <v>66.97243190910997</v>
       </c>
       <c r="T25" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>17.78846042958691</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>78.88597920914968</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>130.0258162860864</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>96.67443963873755</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>165.5010685613433</v>
@@ -24621,7 +24621,7 @@
         <v>147.4283934324466</v>
       </c>
       <c r="I28" t="n">
-        <v>94.24695265715246</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>80.96594743848279</v>
       </c>
       <c r="S28" t="n">
-        <v>183.1891117048806</v>
+        <v>22.96687955426995</v>
       </c>
       <c r="T28" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>279.9659758737533</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>226.7002559248241</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>17.78846042958918</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>144.6584083763594</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>98.18959532947505</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>226.7002559248232</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>226.7002559248243</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>46.7934749512482</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>80.96594743848279</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>48.45197007851451</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>78.88597920914968</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>17.7884604295883</v>
       </c>
       <c r="U35" t="n">
-        <v>147.814276715675</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>134.889458891643</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5010685613433</v>
       </c>
       <c r="H37" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>149.1460889848987</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>147.8142767156735</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>78.88597920914968</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>96.67443963873666</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H40" t="n">
         <v>147.4283934324466</v>
       </c>
       <c r="I40" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>80.96594743848279</v>
       </c>
       <c r="S40" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>116.6884334404292</v>
       </c>
       <c r="Y40" t="n">
-        <v>160.6424686889241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>78.88597920914968</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>147.8142767156741</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>226.7002559248234</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>18.02500624651859</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>130.8974468047279</v>
       </c>
     </row>
     <row r="44">
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>96.67443963873743</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>78.88597920914967</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>130.0258162860864</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>17.7884604295883</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>80.96594743848279</v>
       </c>
       <c r="S46" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>236.8250266956711</v>
+        <v>13.72789033124167</v>
       </c>
       <c r="U46" t="n">
-        <v>260.2271774393378</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>608996.6391141907</v>
+        <v>608996.6391141906</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>608996.6391141907</v>
+        <v>608996.6391141905</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>627194.1037542752</v>
+        <v>627194.1037542751</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>627194.103754275</v>
+        <v>627194.1037542751</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>627194.1037542751</v>
+        <v>627194.1037542752</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>627194.1037542751</v>
+        <v>627194.1037542752</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>504935.4184006165</v>
+        <v>504935.4184006166</v>
       </c>
       <c r="C2" t="n">
-        <v>504935.4184006165</v>
+        <v>504935.4184006166</v>
       </c>
       <c r="D2" t="n">
-        <v>504935.4184006168</v>
+        <v>504935.4184006163</v>
       </c>
       <c r="E2" t="n">
         <v>448955.4346793954</v>
       </c>
       <c r="F2" t="n">
-        <v>448955.4346793955</v>
+        <v>448955.4346793956</v>
       </c>
       <c r="G2" t="n">
         <v>448955.4346793954</v>
@@ -26334,7 +26334,7 @@
         <v>448955.4346793955</v>
       </c>
       <c r="I2" t="n">
-        <v>463807.8694427052</v>
+        <v>463807.8694427051</v>
       </c>
       <c r="J2" t="n">
         <v>463807.8694427052</v>
@@ -26343,19 +26343,19 @@
         <v>463807.8694427052</v>
       </c>
       <c r="L2" t="n">
-        <v>463807.8694427053</v>
+        <v>463807.8694427051</v>
       </c>
       <c r="M2" t="n">
         <v>463807.8694427051</v>
       </c>
       <c r="N2" t="n">
-        <v>463807.8694427054</v>
+        <v>463807.8694427053</v>
       </c>
       <c r="O2" t="n">
         <v>463807.8694427051</v>
       </c>
       <c r="P2" t="n">
-        <v>463807.8694427052</v>
+        <v>463807.8694427051</v>
       </c>
     </row>
     <row r="3">
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45948.62261588481</v>
+        <v>45948.6226158847</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058951</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>160358.4505006826</v>
+        <v>160358.4505006828</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,22 +26423,22 @@
         <v>184088.9587438941</v>
       </c>
       <c r="D4" t="n">
-        <v>184088.958743894</v>
+        <v>184088.9587438941</v>
       </c>
       <c r="E4" t="n">
-        <v>44919.86535090263</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="F4" t="n">
-        <v>44919.86535090263</v>
+        <v>44919.86535090264</v>
       </c>
       <c r="G4" t="n">
         <v>44919.86535090264</v>
       </c>
       <c r="H4" t="n">
-        <v>44919.86535090265</v>
+        <v>44919.86535090263</v>
       </c>
       <c r="I4" t="n">
-        <v>44459.02800379277</v>
+        <v>44459.02800379276</v>
       </c>
       <c r="J4" t="n">
         <v>44459.02800379276</v>
@@ -26447,19 +26447,19 @@
         <v>44459.02800379276</v>
       </c>
       <c r="L4" t="n">
-        <v>44459.02800379277</v>
+        <v>44459.02800379276</v>
       </c>
       <c r="M4" t="n">
         <v>44459.02800379277</v>
       </c>
       <c r="N4" t="n">
-        <v>44459.02800379277</v>
+        <v>44459.02800379276</v>
       </c>
       <c r="O4" t="n">
-        <v>44459.02800379277</v>
+        <v>44459.02800379276</v>
       </c>
       <c r="P4" t="n">
-        <v>44459.02800379277</v>
+        <v>44459.02800379276</v>
       </c>
     </row>
     <row r="5">
@@ -26490,25 +26490,25 @@
         <v>70865.21024487333</v>
       </c>
       <c r="I5" t="n">
-        <v>74967.83978868564</v>
+        <v>74967.83978868563</v>
       </c>
       <c r="J5" t="n">
-        <v>74967.83978868565</v>
+        <v>74967.83978868563</v>
       </c>
       <c r="K5" t="n">
-        <v>74967.83978868564</v>
+        <v>74967.83978868563</v>
       </c>
       <c r="L5" t="n">
-        <v>74967.83978868565</v>
+        <v>74967.83978868563</v>
       </c>
       <c r="M5" t="n">
         <v>74967.83978868564</v>
       </c>
       <c r="N5" t="n">
-        <v>74967.83978868565</v>
+        <v>74967.83978868564</v>
       </c>
       <c r="O5" t="n">
-        <v>74967.83978868565</v>
+        <v>74967.83978868564</v>
       </c>
       <c r="P5" t="n">
         <v>74967.83978868564</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>80521.88468511077</v>
+        <v>80521.88468511091</v>
       </c>
       <c r="C6" t="n">
-        <v>255477.3945782249</v>
+        <v>255477.394578225</v>
       </c>
       <c r="D6" t="n">
-        <v>255477.3945782252</v>
+        <v>255477.3945782247</v>
       </c>
       <c r="E6" t="n">
-        <v>141040.5961841763</v>
+        <v>140860.0155915272</v>
       </c>
       <c r="F6" t="n">
-        <v>333170.3590836196</v>
+        <v>332989.7784909705</v>
       </c>
       <c r="G6" t="n">
-        <v>333170.3590836194</v>
+        <v>332989.7784909703</v>
       </c>
       <c r="H6" t="n">
-        <v>333170.3590836196</v>
+        <v>332989.7784909704</v>
       </c>
       <c r="I6" t="n">
-        <v>298432.379034342</v>
+        <v>298299.7095215746</v>
       </c>
       <c r="J6" t="n">
-        <v>207786.2008443318</v>
+        <v>207653.5313315645</v>
       </c>
       <c r="K6" t="n">
-        <v>344381.0016502268</v>
+        <v>344248.3321374594</v>
       </c>
       <c r="L6" t="n">
-        <v>344381.0016502269</v>
+        <v>344248.3321374592</v>
       </c>
       <c r="M6" t="n">
-        <v>184022.551149544</v>
+        <v>183889.8816367764</v>
       </c>
       <c r="N6" t="n">
-        <v>344381.0016502269</v>
+        <v>344248.3321374594</v>
       </c>
       <c r="O6" t="n">
-        <v>344381.0016502267</v>
+        <v>344248.3321374593</v>
       </c>
       <c r="P6" t="n">
-        <v>344381.0016502268</v>
+        <v>344248.3321374592</v>
       </c>
     </row>
   </sheetData>
@@ -26758,25 +26758,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812882</v>
+        <v>42.59940676812876</v>
       </c>
       <c r="J3" t="n">
-        <v>42.59940676812882</v>
+        <v>42.59940676812876</v>
       </c>
       <c r="K3" t="n">
-        <v>42.59940676812882</v>
+        <v>42.59940676812876</v>
       </c>
       <c r="L3" t="n">
-        <v>42.59940676812882</v>
+        <v>42.59940676812876</v>
       </c>
       <c r="M3" t="n">
-        <v>42.59940676812882</v>
+        <v>42.59940676812876</v>
       </c>
       <c r="N3" t="n">
-        <v>42.59940676812882</v>
+        <v>42.59940676812876</v>
       </c>
       <c r="O3" t="n">
-        <v>42.59940676812882</v>
+        <v>42.5994067681289</v>
       </c>
       <c r="P3" t="n">
         <v>42.5994067681289</v>
@@ -26810,16 +26810,16 @@
         <v>1165.546221132785</v>
       </c>
       <c r="I4" t="n">
-        <v>1217.749551334547</v>
+        <v>1217.749551334546</v>
       </c>
       <c r="J4" t="n">
-        <v>1217.749551334547</v>
+        <v>1217.749551334546</v>
       </c>
       <c r="K4" t="n">
-        <v>1217.749551334547</v>
+        <v>1217.749551334546</v>
       </c>
       <c r="L4" t="n">
-        <v>1217.749551334547</v>
+        <v>1217.749551334546</v>
       </c>
       <c r="M4" t="n">
         <v>1217.749551334547</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812882</v>
+        <v>42.59940676812876</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>52.20333020176144</v>
+        <v>52.20333020176122</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700259</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627591</v>
+        <v>643.4826507627596</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>399.9010306153818</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>57.59615060634727</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>25.32377242153927</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>80.9314284433739</v>
       </c>
     </row>
     <row r="5">
@@ -27624,19 +27624,19 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>177.1214849581809</v>
+        <v>160.5105722195416</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.559539437450468</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>164.8673625107937</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
@@ -27855,13 +27855,13 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>57.59615060634712</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>80.73638388877794</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -28064,22 +28064,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>93.42449318090726</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.89313055788466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1712538965552916</v>
+        <v>0.1712538965552914</v>
       </c>
       <c r="H23" t="n">
-        <v>1.753853968096881</v>
+        <v>1.753853968096878</v>
       </c>
       <c r="I23" t="n">
-        <v>6.602265846947887</v>
+        <v>6.602265846947876</v>
       </c>
       <c r="J23" t="n">
-        <v>14.5349604027597</v>
+        <v>14.53496040275967</v>
       </c>
       <c r="K23" t="n">
-        <v>21.78413784394519</v>
+        <v>21.78413784394516</v>
       </c>
       <c r="L23" t="n">
-        <v>27.02514928064921</v>
+        <v>27.02514928064916</v>
       </c>
       <c r="M23" t="n">
-        <v>30.07068576351437</v>
+        <v>30.07068576351433</v>
       </c>
       <c r="N23" t="n">
-        <v>30.5572608971021</v>
+        <v>30.55726089710205</v>
       </c>
       <c r="O23" t="n">
-        <v>28.85435496323041</v>
+        <v>28.85435496323037</v>
       </c>
       <c r="P23" t="n">
-        <v>24.62652439202165</v>
+        <v>24.62652439202161</v>
       </c>
       <c r="Q23" t="n">
-        <v>18.49349422163526</v>
+        <v>18.49349422163523</v>
       </c>
       <c r="R23" t="n">
-        <v>10.75752757949135</v>
+        <v>10.75752757949133</v>
       </c>
       <c r="S23" t="n">
-        <v>3.902448167753712</v>
+        <v>3.902448167753706</v>
       </c>
       <c r="T23" t="n">
-        <v>0.7496639321707894</v>
+        <v>0.7496639321707883</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01370031172442333</v>
+        <v>0.01370031172442331</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09162891267106954</v>
+        <v>0.09162891267106942</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8849423934284876</v>
+        <v>0.8849423934284862</v>
       </c>
       <c r="I24" t="n">
-        <v>3.154767388017088</v>
+        <v>3.154767388017083</v>
       </c>
       <c r="J24" t="n">
-        <v>8.656922841436444</v>
+        <v>8.656922841436431</v>
       </c>
       <c r="K24" t="n">
-        <v>14.7960599903981</v>
+        <v>14.79605999039808</v>
       </c>
       <c r="L24" t="n">
-        <v>19.89512860430394</v>
+        <v>19.89512860430391</v>
       </c>
       <c r="M24" t="n">
-        <v>23.2166766886302</v>
+        <v>23.21667668863017</v>
       </c>
       <c r="N24" t="n">
-        <v>23.83115303720067</v>
+        <v>23.83115303720064</v>
       </c>
       <c r="O24" t="n">
-        <v>21.80084923538382</v>
+        <v>21.80084923538378</v>
       </c>
       <c r="P24" t="n">
-        <v>17.49710350821503</v>
+        <v>17.497103508215</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.69635032622284</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R24" t="n">
-        <v>5.689030209524829</v>
+        <v>5.68903020952482</v>
       </c>
       <c r="S24" t="n">
-        <v>1.701966864745523</v>
+        <v>1.701966864745521</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3693288190557583</v>
+        <v>0.3693288190557577</v>
       </c>
       <c r="U24" t="n">
-        <v>0.006028217938886157</v>
+        <v>0.006028217938886147</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07681860236875689</v>
+        <v>0.07681860236875677</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6829872101513117</v>
+        <v>0.6829872101513107</v>
       </c>
       <c r="I25" t="n">
-        <v>2.310144878507708</v>
+        <v>2.310144878507704</v>
       </c>
       <c r="J25" t="n">
-        <v>5.431075187471111</v>
+        <v>5.431075187471103</v>
       </c>
       <c r="K25" t="n">
-        <v>8.924924893388297</v>
+        <v>8.924924893388285</v>
       </c>
       <c r="L25" t="n">
-        <v>11.42083111944228</v>
+        <v>11.42083111944226</v>
       </c>
       <c r="M25" t="n">
-        <v>12.04166509676795</v>
+        <v>12.04166509676793</v>
       </c>
       <c r="N25" t="n">
-        <v>11.75534121521169</v>
+        <v>11.75534121521167</v>
       </c>
       <c r="O25" t="n">
-        <v>10.85796026935848</v>
+        <v>10.85796026935846</v>
       </c>
       <c r="P25" t="n">
-        <v>9.290860781035828</v>
+        <v>9.290860781035816</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.432510421987452</v>
+        <v>6.432510421987442</v>
       </c>
       <c r="R25" t="n">
-        <v>3.454043702871559</v>
+        <v>3.454043702871553</v>
       </c>
       <c r="S25" t="n">
-        <v>1.338738734008245</v>
+        <v>1.338738734008243</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3282249373937793</v>
+        <v>0.3282249373937788</v>
       </c>
       <c r="U25" t="n">
-        <v>0.00419010558375038</v>
+        <v>0.004190105583750374</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1712538965552916</v>
+        <v>0.1712538965552914</v>
       </c>
       <c r="H26" t="n">
-        <v>1.753853968096881</v>
+        <v>1.753853968096878</v>
       </c>
       <c r="I26" t="n">
-        <v>6.602265846947887</v>
+        <v>6.602265846947876</v>
       </c>
       <c r="J26" t="n">
-        <v>14.5349604027597</v>
+        <v>14.53496040275967</v>
       </c>
       <c r="K26" t="n">
-        <v>21.78413784394519</v>
+        <v>21.78413784394516</v>
       </c>
       <c r="L26" t="n">
-        <v>27.02514928064921</v>
+        <v>27.02514928064916</v>
       </c>
       <c r="M26" t="n">
-        <v>30.07068576351437</v>
+        <v>30.07068576351433</v>
       </c>
       <c r="N26" t="n">
-        <v>30.5572608971021</v>
+        <v>30.55726089710205</v>
       </c>
       <c r="O26" t="n">
-        <v>28.85435496323041</v>
+        <v>28.85435496323037</v>
       </c>
       <c r="P26" t="n">
-        <v>24.62652439202165</v>
+        <v>24.62652439202161</v>
       </c>
       <c r="Q26" t="n">
-        <v>18.49349422163526</v>
+        <v>18.49349422163523</v>
       </c>
       <c r="R26" t="n">
-        <v>10.75752757949135</v>
+        <v>10.75752757949133</v>
       </c>
       <c r="S26" t="n">
-        <v>3.902448167753712</v>
+        <v>3.902448167753706</v>
       </c>
       <c r="T26" t="n">
-        <v>0.7496639321707894</v>
+        <v>0.7496639321707883</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01370031172442333</v>
+        <v>0.01370031172442331</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.09162891267106954</v>
+        <v>0.09162891267106942</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8849423934284876</v>
+        <v>0.8849423934284862</v>
       </c>
       <c r="I27" t="n">
-        <v>3.154767388017088</v>
+        <v>3.154767388017083</v>
       </c>
       <c r="J27" t="n">
-        <v>8.656922841436444</v>
+        <v>8.656922841436431</v>
       </c>
       <c r="K27" t="n">
-        <v>14.7960599903981</v>
+        <v>14.79605999039808</v>
       </c>
       <c r="L27" t="n">
-        <v>19.89512860430394</v>
+        <v>19.89512860430391</v>
       </c>
       <c r="M27" t="n">
-        <v>23.2166766886302</v>
+        <v>23.21667668863017</v>
       </c>
       <c r="N27" t="n">
-        <v>23.83115303720067</v>
+        <v>23.83115303720064</v>
       </c>
       <c r="O27" t="n">
-        <v>21.80084923538382</v>
+        <v>21.80084923538378</v>
       </c>
       <c r="P27" t="n">
-        <v>17.49710350821503</v>
+        <v>17.497103508215</v>
       </c>
       <c r="Q27" t="n">
-        <v>11.69635032622284</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R27" t="n">
-        <v>5.689030209524829</v>
+        <v>5.68903020952482</v>
       </c>
       <c r="S27" t="n">
-        <v>1.701966864745523</v>
+        <v>1.701966864745521</v>
       </c>
       <c r="T27" t="n">
-        <v>0.3693288190557583</v>
+        <v>0.3693288190557577</v>
       </c>
       <c r="U27" t="n">
-        <v>0.006028217938886157</v>
+        <v>0.006028217938886147</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07681860236875689</v>
+        <v>0.07681860236875677</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6829872101513117</v>
+        <v>0.6829872101513107</v>
       </c>
       <c r="I28" t="n">
-        <v>2.310144878507708</v>
+        <v>2.310144878507704</v>
       </c>
       <c r="J28" t="n">
-        <v>5.431075187471111</v>
+        <v>5.431075187471103</v>
       </c>
       <c r="K28" t="n">
-        <v>8.924924893388297</v>
+        <v>8.924924893388285</v>
       </c>
       <c r="L28" t="n">
-        <v>11.42083111944228</v>
+        <v>11.42083111944226</v>
       </c>
       <c r="M28" t="n">
-        <v>12.04166509676795</v>
+        <v>12.04166509676793</v>
       </c>
       <c r="N28" t="n">
-        <v>11.75534121521169</v>
+        <v>11.75534121521167</v>
       </c>
       <c r="O28" t="n">
-        <v>10.85796026935848</v>
+        <v>10.85796026935846</v>
       </c>
       <c r="P28" t="n">
-        <v>9.290860781035828</v>
+        <v>9.290860781035816</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.432510421987452</v>
+        <v>6.432510421987442</v>
       </c>
       <c r="R28" t="n">
-        <v>3.454043702871559</v>
+        <v>3.454043702871553</v>
       </c>
       <c r="S28" t="n">
-        <v>1.338738734008245</v>
+        <v>1.338738734008243</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3282249373937793</v>
+        <v>0.3282249373937788</v>
       </c>
       <c r="U28" t="n">
-        <v>0.00419010558375038</v>
+        <v>0.004190105583750374</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1712538965552916</v>
+        <v>0.1712538965552914</v>
       </c>
       <c r="H29" t="n">
-        <v>1.753853968096881</v>
+        <v>1.753853968096878</v>
       </c>
       <c r="I29" t="n">
-        <v>6.602265846947887</v>
+        <v>6.602265846947876</v>
       </c>
       <c r="J29" t="n">
-        <v>14.5349604027597</v>
+        <v>14.53496040275967</v>
       </c>
       <c r="K29" t="n">
-        <v>21.78413784394519</v>
+        <v>21.78413784394516</v>
       </c>
       <c r="L29" t="n">
-        <v>27.02514928064921</v>
+        <v>27.02514928064916</v>
       </c>
       <c r="M29" t="n">
-        <v>30.07068576351437</v>
+        <v>30.07068576351433</v>
       </c>
       <c r="N29" t="n">
-        <v>30.5572608971021</v>
+        <v>30.55726089710205</v>
       </c>
       <c r="O29" t="n">
-        <v>28.85435496323041</v>
+        <v>28.85435496323037</v>
       </c>
       <c r="P29" t="n">
-        <v>24.62652439202165</v>
+        <v>24.62652439202161</v>
       </c>
       <c r="Q29" t="n">
-        <v>18.49349422163526</v>
+        <v>18.49349422163523</v>
       </c>
       <c r="R29" t="n">
-        <v>10.75752757949135</v>
+        <v>10.75752757949133</v>
       </c>
       <c r="S29" t="n">
-        <v>3.902448167753712</v>
+        <v>3.902448167753706</v>
       </c>
       <c r="T29" t="n">
-        <v>0.7496639321707894</v>
+        <v>0.7496639321707883</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01370031172442333</v>
+        <v>0.01370031172442331</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.09162891267106954</v>
+        <v>0.09162891267106942</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8849423934284876</v>
+        <v>0.8849423934284862</v>
       </c>
       <c r="I30" t="n">
-        <v>3.154767388017088</v>
+        <v>3.154767388017083</v>
       </c>
       <c r="J30" t="n">
-        <v>8.656922841436444</v>
+        <v>8.656922841436431</v>
       </c>
       <c r="K30" t="n">
-        <v>14.7960599903981</v>
+        <v>14.79605999039808</v>
       </c>
       <c r="L30" t="n">
-        <v>19.89512860430394</v>
+        <v>19.89512860430391</v>
       </c>
       <c r="M30" t="n">
-        <v>23.2166766886302</v>
+        <v>23.21667668863017</v>
       </c>
       <c r="N30" t="n">
-        <v>23.83115303720067</v>
+        <v>23.83115303720064</v>
       </c>
       <c r="O30" t="n">
-        <v>21.80084923538382</v>
+        <v>21.80084923538378</v>
       </c>
       <c r="P30" t="n">
-        <v>17.49710350821503</v>
+        <v>17.497103508215</v>
       </c>
       <c r="Q30" t="n">
-        <v>11.69635032622284</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R30" t="n">
-        <v>5.689030209524829</v>
+        <v>5.68903020952482</v>
       </c>
       <c r="S30" t="n">
-        <v>1.701966864745523</v>
+        <v>1.701966864745521</v>
       </c>
       <c r="T30" t="n">
-        <v>0.3693288190557583</v>
+        <v>0.3693288190557577</v>
       </c>
       <c r="U30" t="n">
-        <v>0.006028217938886157</v>
+        <v>0.006028217938886147</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.07681860236875689</v>
+        <v>0.07681860236875677</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6829872101513117</v>
+        <v>0.6829872101513107</v>
       </c>
       <c r="I31" t="n">
-        <v>2.310144878507708</v>
+        <v>2.310144878507704</v>
       </c>
       <c r="J31" t="n">
-        <v>5.431075187471111</v>
+        <v>5.431075187471103</v>
       </c>
       <c r="K31" t="n">
-        <v>8.924924893388297</v>
+        <v>8.924924893388285</v>
       </c>
       <c r="L31" t="n">
-        <v>11.42083111944228</v>
+        <v>11.42083111944226</v>
       </c>
       <c r="M31" t="n">
-        <v>12.04166509676795</v>
+        <v>12.04166509676793</v>
       </c>
       <c r="N31" t="n">
-        <v>11.75534121521169</v>
+        <v>11.75534121521167</v>
       </c>
       <c r="O31" t="n">
-        <v>10.85796026935848</v>
+        <v>10.85796026935846</v>
       </c>
       <c r="P31" t="n">
-        <v>9.290860781035828</v>
+        <v>9.290860781035816</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.432510421987452</v>
+        <v>6.432510421987442</v>
       </c>
       <c r="R31" t="n">
-        <v>3.454043702871559</v>
+        <v>3.454043702871553</v>
       </c>
       <c r="S31" t="n">
-        <v>1.338738734008245</v>
+        <v>1.338738734008243</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3282249373937793</v>
+        <v>0.3282249373937788</v>
       </c>
       <c r="U31" t="n">
-        <v>0.00419010558375038</v>
+        <v>0.004190105583750374</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1712538965552916</v>
+        <v>0.1712538965552914</v>
       </c>
       <c r="H32" t="n">
-        <v>1.753853968096881</v>
+        <v>1.753853968096878</v>
       </c>
       <c r="I32" t="n">
-        <v>6.602265846947887</v>
+        <v>6.602265846947876</v>
       </c>
       <c r="J32" t="n">
-        <v>14.5349604027597</v>
+        <v>14.53496040275967</v>
       </c>
       <c r="K32" t="n">
-        <v>21.78413784394519</v>
+        <v>21.78413784394516</v>
       </c>
       <c r="L32" t="n">
-        <v>27.02514928064921</v>
+        <v>27.02514928064916</v>
       </c>
       <c r="M32" t="n">
-        <v>30.07068576351437</v>
+        <v>30.07068576351433</v>
       </c>
       <c r="N32" t="n">
-        <v>30.5572608971021</v>
+        <v>30.55726089710205</v>
       </c>
       <c r="O32" t="n">
-        <v>28.85435496323041</v>
+        <v>28.85435496323037</v>
       </c>
       <c r="P32" t="n">
-        <v>24.62652439202165</v>
+        <v>24.62652439202161</v>
       </c>
       <c r="Q32" t="n">
-        <v>18.49349422163526</v>
+        <v>18.49349422163523</v>
       </c>
       <c r="R32" t="n">
-        <v>10.75752757949135</v>
+        <v>10.75752757949133</v>
       </c>
       <c r="S32" t="n">
-        <v>3.902448167753712</v>
+        <v>3.902448167753706</v>
       </c>
       <c r="T32" t="n">
-        <v>0.7496639321707894</v>
+        <v>0.7496639321707883</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01370031172442333</v>
+        <v>0.01370031172442331</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.09162891267106954</v>
+        <v>0.09162891267106942</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8849423934284876</v>
+        <v>0.8849423934284862</v>
       </c>
       <c r="I33" t="n">
-        <v>3.154767388017088</v>
+        <v>3.154767388017083</v>
       </c>
       <c r="J33" t="n">
-        <v>8.656922841436444</v>
+        <v>8.656922841436431</v>
       </c>
       <c r="K33" t="n">
-        <v>14.7960599903981</v>
+        <v>14.79605999039808</v>
       </c>
       <c r="L33" t="n">
-        <v>19.89512860430394</v>
+        <v>19.89512860430391</v>
       </c>
       <c r="M33" t="n">
-        <v>23.2166766886302</v>
+        <v>23.21667668863017</v>
       </c>
       <c r="N33" t="n">
-        <v>23.83115303720067</v>
+        <v>23.83115303720064</v>
       </c>
       <c r="O33" t="n">
-        <v>21.80084923538382</v>
+        <v>21.80084923538378</v>
       </c>
       <c r="P33" t="n">
-        <v>17.49710350821503</v>
+        <v>17.497103508215</v>
       </c>
       <c r="Q33" t="n">
-        <v>11.69635032622284</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R33" t="n">
-        <v>5.689030209524829</v>
+        <v>5.68903020952482</v>
       </c>
       <c r="S33" t="n">
-        <v>1.701966864745523</v>
+        <v>1.701966864745521</v>
       </c>
       <c r="T33" t="n">
-        <v>0.3693288190557583</v>
+        <v>0.3693288190557577</v>
       </c>
       <c r="U33" t="n">
-        <v>0.006028217938886157</v>
+        <v>0.006028217938886147</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.07681860236875689</v>
+        <v>0.07681860236875677</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6829872101513117</v>
+        <v>0.6829872101513107</v>
       </c>
       <c r="I34" t="n">
-        <v>2.310144878507708</v>
+        <v>2.310144878507704</v>
       </c>
       <c r="J34" t="n">
-        <v>5.431075187471111</v>
+        <v>5.431075187471103</v>
       </c>
       <c r="K34" t="n">
-        <v>8.924924893388297</v>
+        <v>8.924924893388285</v>
       </c>
       <c r="L34" t="n">
-        <v>11.42083111944228</v>
+        <v>11.42083111944226</v>
       </c>
       <c r="M34" t="n">
-        <v>12.04166509676795</v>
+        <v>12.04166509676793</v>
       </c>
       <c r="N34" t="n">
-        <v>11.75534121521169</v>
+        <v>11.75534121521167</v>
       </c>
       <c r="O34" t="n">
-        <v>10.85796026935848</v>
+        <v>10.85796026935846</v>
       </c>
       <c r="P34" t="n">
-        <v>9.290860781035828</v>
+        <v>9.290860781035816</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.432510421987452</v>
+        <v>6.432510421987442</v>
       </c>
       <c r="R34" t="n">
-        <v>3.454043702871559</v>
+        <v>3.454043702871553</v>
       </c>
       <c r="S34" t="n">
-        <v>1.338738734008245</v>
+        <v>1.338738734008243</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3282249373937793</v>
+        <v>0.3282249373937788</v>
       </c>
       <c r="U34" t="n">
-        <v>0.00419010558375038</v>
+        <v>0.004190105583750374</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1712538965552916</v>
+        <v>0.1712538965552914</v>
       </c>
       <c r="H35" t="n">
-        <v>1.753853968096881</v>
+        <v>1.753853968096878</v>
       </c>
       <c r="I35" t="n">
-        <v>6.602265846947887</v>
+        <v>6.602265846947876</v>
       </c>
       <c r="J35" t="n">
-        <v>14.5349604027597</v>
+        <v>14.53496040275967</v>
       </c>
       <c r="K35" t="n">
-        <v>21.78413784394519</v>
+        <v>21.78413784394516</v>
       </c>
       <c r="L35" t="n">
-        <v>27.02514928064921</v>
+        <v>27.02514928064916</v>
       </c>
       <c r="M35" t="n">
-        <v>30.07068576351437</v>
+        <v>30.07068576351433</v>
       </c>
       <c r="N35" t="n">
-        <v>30.5572608971021</v>
+        <v>30.55726089710205</v>
       </c>
       <c r="O35" t="n">
-        <v>28.85435496323041</v>
+        <v>28.85435496323037</v>
       </c>
       <c r="P35" t="n">
-        <v>24.62652439202165</v>
+        <v>24.62652439202161</v>
       </c>
       <c r="Q35" t="n">
-        <v>18.49349422163526</v>
+        <v>18.49349422163523</v>
       </c>
       <c r="R35" t="n">
-        <v>10.75752757949135</v>
+        <v>10.75752757949133</v>
       </c>
       <c r="S35" t="n">
-        <v>3.902448167753712</v>
+        <v>3.902448167753706</v>
       </c>
       <c r="T35" t="n">
-        <v>0.7496639321707894</v>
+        <v>0.7496639321707883</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01370031172442333</v>
+        <v>0.01370031172442331</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.09162891267106954</v>
+        <v>0.09162891267106942</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8849423934284876</v>
+        <v>0.8849423934284862</v>
       </c>
       <c r="I36" t="n">
-        <v>3.154767388017088</v>
+        <v>3.154767388017083</v>
       </c>
       <c r="J36" t="n">
-        <v>8.656922841436444</v>
+        <v>8.656922841436431</v>
       </c>
       <c r="K36" t="n">
-        <v>14.7960599903981</v>
+        <v>14.79605999039808</v>
       </c>
       <c r="L36" t="n">
-        <v>19.89512860430394</v>
+        <v>19.89512860430391</v>
       </c>
       <c r="M36" t="n">
-        <v>23.2166766886302</v>
+        <v>23.21667668863017</v>
       </c>
       <c r="N36" t="n">
-        <v>23.83115303720067</v>
+        <v>23.83115303720064</v>
       </c>
       <c r="O36" t="n">
-        <v>21.80084923538382</v>
+        <v>21.80084923538378</v>
       </c>
       <c r="P36" t="n">
-        <v>17.49710350821503</v>
+        <v>17.497103508215</v>
       </c>
       <c r="Q36" t="n">
-        <v>11.69635032622284</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R36" t="n">
-        <v>5.689030209524829</v>
+        <v>5.68903020952482</v>
       </c>
       <c r="S36" t="n">
-        <v>1.701966864745523</v>
+        <v>1.701966864745521</v>
       </c>
       <c r="T36" t="n">
-        <v>0.3693288190557583</v>
+        <v>0.3693288190557577</v>
       </c>
       <c r="U36" t="n">
-        <v>0.006028217938886157</v>
+        <v>0.006028217938886147</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.07681860236875689</v>
+        <v>0.07681860236875677</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6829872101513117</v>
+        <v>0.6829872101513107</v>
       </c>
       <c r="I37" t="n">
-        <v>2.310144878507708</v>
+        <v>2.310144878507704</v>
       </c>
       <c r="J37" t="n">
-        <v>5.431075187471111</v>
+        <v>5.431075187471103</v>
       </c>
       <c r="K37" t="n">
-        <v>8.924924893388297</v>
+        <v>8.924924893388285</v>
       </c>
       <c r="L37" t="n">
-        <v>11.42083111944228</v>
+        <v>11.42083111944226</v>
       </c>
       <c r="M37" t="n">
-        <v>12.04166509676795</v>
+        <v>12.04166509676793</v>
       </c>
       <c r="N37" t="n">
-        <v>11.75534121521169</v>
+        <v>11.75534121521167</v>
       </c>
       <c r="O37" t="n">
-        <v>10.85796026935848</v>
+        <v>10.85796026935846</v>
       </c>
       <c r="P37" t="n">
-        <v>9.290860781035828</v>
+        <v>9.290860781035816</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.432510421987452</v>
+        <v>6.432510421987442</v>
       </c>
       <c r="R37" t="n">
-        <v>3.454043702871559</v>
+        <v>3.454043702871553</v>
       </c>
       <c r="S37" t="n">
-        <v>1.338738734008245</v>
+        <v>1.338738734008243</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3282249373937793</v>
+        <v>0.3282249373937788</v>
       </c>
       <c r="U37" t="n">
-        <v>0.00419010558375038</v>
+        <v>0.004190105583750374</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1712538965552916</v>
+        <v>0.1712538965552914</v>
       </c>
       <c r="H38" t="n">
-        <v>1.753853968096881</v>
+        <v>1.753853968096878</v>
       </c>
       <c r="I38" t="n">
-        <v>6.602265846947887</v>
+        <v>6.602265846947876</v>
       </c>
       <c r="J38" t="n">
-        <v>14.5349604027597</v>
+        <v>14.53496040275967</v>
       </c>
       <c r="K38" t="n">
-        <v>21.78413784394519</v>
+        <v>21.78413784394516</v>
       </c>
       <c r="L38" t="n">
-        <v>27.02514928064921</v>
+        <v>27.02514928064916</v>
       </c>
       <c r="M38" t="n">
-        <v>30.07068576351437</v>
+        <v>30.07068576351433</v>
       </c>
       <c r="N38" t="n">
-        <v>30.5572608971021</v>
+        <v>30.55726089710205</v>
       </c>
       <c r="O38" t="n">
-        <v>28.85435496323041</v>
+        <v>28.85435496323037</v>
       </c>
       <c r="P38" t="n">
-        <v>24.62652439202165</v>
+        <v>24.62652439202161</v>
       </c>
       <c r="Q38" t="n">
-        <v>18.49349422163526</v>
+        <v>18.49349422163523</v>
       </c>
       <c r="R38" t="n">
-        <v>10.75752757949135</v>
+        <v>10.75752757949133</v>
       </c>
       <c r="S38" t="n">
-        <v>3.902448167753712</v>
+        <v>3.902448167753706</v>
       </c>
       <c r="T38" t="n">
-        <v>0.7496639321707894</v>
+        <v>0.7496639321707883</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01370031172442333</v>
+        <v>0.01370031172442331</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.09162891267106954</v>
+        <v>0.09162891267106942</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8849423934284876</v>
+        <v>0.8849423934284862</v>
       </c>
       <c r="I39" t="n">
-        <v>3.154767388017088</v>
+        <v>3.154767388017083</v>
       </c>
       <c r="J39" t="n">
-        <v>8.656922841436444</v>
+        <v>8.656922841436431</v>
       </c>
       <c r="K39" t="n">
-        <v>14.7960599903981</v>
+        <v>14.79605999039808</v>
       </c>
       <c r="L39" t="n">
-        <v>19.89512860430394</v>
+        <v>19.89512860430391</v>
       </c>
       <c r="M39" t="n">
-        <v>23.2166766886302</v>
+        <v>23.21667668863017</v>
       </c>
       <c r="N39" t="n">
-        <v>23.83115303720067</v>
+        <v>23.83115303720064</v>
       </c>
       <c r="O39" t="n">
-        <v>21.80084923538382</v>
+        <v>21.80084923538378</v>
       </c>
       <c r="P39" t="n">
-        <v>17.49710350821503</v>
+        <v>17.497103508215</v>
       </c>
       <c r="Q39" t="n">
-        <v>11.69635032622284</v>
+        <v>11.69635032622283</v>
       </c>
       <c r="R39" t="n">
-        <v>5.689030209524829</v>
+        <v>5.68903020952482</v>
       </c>
       <c r="S39" t="n">
-        <v>1.701966864745523</v>
+        <v>1.701966864745521</v>
       </c>
       <c r="T39" t="n">
-        <v>0.3693288190557583</v>
+        <v>0.3693288190557577</v>
       </c>
       <c r="U39" t="n">
-        <v>0.006028217938886157</v>
+        <v>0.006028217938886147</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.07681860236875689</v>
+        <v>0.07681860236875677</v>
       </c>
       <c r="H40" t="n">
-        <v>0.6829872101513117</v>
+        <v>0.6829872101513107</v>
       </c>
       <c r="I40" t="n">
-        <v>2.310144878507708</v>
+        <v>2.310144878507704</v>
       </c>
       <c r="J40" t="n">
-        <v>5.431075187471111</v>
+        <v>5.431075187471103</v>
       </c>
       <c r="K40" t="n">
-        <v>8.924924893388297</v>
+        <v>8.924924893388285</v>
       </c>
       <c r="L40" t="n">
-        <v>11.42083111944228</v>
+        <v>11.42083111944226</v>
       </c>
       <c r="M40" t="n">
-        <v>12.04166509676795</v>
+        <v>12.04166509676793</v>
       </c>
       <c r="N40" t="n">
-        <v>11.75534121521169</v>
+        <v>11.75534121521167</v>
       </c>
       <c r="O40" t="n">
-        <v>10.85796026935848</v>
+        <v>10.85796026935846</v>
       </c>
       <c r="P40" t="n">
-        <v>9.290860781035828</v>
+        <v>9.290860781035816</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.432510421987452</v>
+        <v>6.432510421987442</v>
       </c>
       <c r="R40" t="n">
-        <v>3.454043702871559</v>
+        <v>3.454043702871553</v>
       </c>
       <c r="S40" t="n">
-        <v>1.338738734008245</v>
+        <v>1.338738734008243</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3282249373937793</v>
+        <v>0.3282249373937788</v>
       </c>
       <c r="U40" t="n">
-        <v>0.00419010558375038</v>
+        <v>0.004190105583750374</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1712538965552916</v>
+        <v>0.1712538965552919</v>
       </c>
       <c r="H41" t="n">
-        <v>1.753853968096881</v>
+        <v>1.753853968096884</v>
       </c>
       <c r="I41" t="n">
-        <v>6.602265846947887</v>
+        <v>6.602265846947899</v>
       </c>
       <c r="J41" t="n">
-        <v>14.5349604027597</v>
+        <v>14.53496040275972</v>
       </c>
       <c r="K41" t="n">
-        <v>21.78413784394519</v>
+        <v>21.78413784394523</v>
       </c>
       <c r="L41" t="n">
-        <v>27.02514928064921</v>
+        <v>27.02514928064926</v>
       </c>
       <c r="M41" t="n">
-        <v>30.07068576351437</v>
+        <v>30.07068576351443</v>
       </c>
       <c r="N41" t="n">
-        <v>30.5572608971021</v>
+        <v>30.55726089710215</v>
       </c>
       <c r="O41" t="n">
-        <v>28.85435496323041</v>
+        <v>28.85435496323047</v>
       </c>
       <c r="P41" t="n">
-        <v>24.62652439202165</v>
+        <v>24.62652439202169</v>
       </c>
       <c r="Q41" t="n">
-        <v>18.49349422163526</v>
+        <v>18.4934942216353</v>
       </c>
       <c r="R41" t="n">
-        <v>10.75752757949135</v>
+        <v>10.75752757949137</v>
       </c>
       <c r="S41" t="n">
-        <v>3.902448167753712</v>
+        <v>3.902448167753719</v>
       </c>
       <c r="T41" t="n">
-        <v>0.7496639321707894</v>
+        <v>0.7496639321707909</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01370031172442333</v>
+        <v>0.01370031172442335</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.09162891267106954</v>
+        <v>0.09162891267106972</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8849423934284876</v>
+        <v>0.8849423934284892</v>
       </c>
       <c r="I42" t="n">
-        <v>3.154767388017088</v>
+        <v>3.154767388017094</v>
       </c>
       <c r="J42" t="n">
-        <v>8.656922841436444</v>
+        <v>8.65692284143646</v>
       </c>
       <c r="K42" t="n">
-        <v>14.7960599903981</v>
+        <v>14.79605999039813</v>
       </c>
       <c r="L42" t="n">
-        <v>19.89512860430394</v>
+        <v>19.89512860430398</v>
       </c>
       <c r="M42" t="n">
-        <v>23.2166766886302</v>
+        <v>23.21667668863025</v>
       </c>
       <c r="N42" t="n">
-        <v>23.83115303720067</v>
+        <v>23.83115303720071</v>
       </c>
       <c r="O42" t="n">
-        <v>21.80084923538382</v>
+        <v>21.80084923538385</v>
       </c>
       <c r="P42" t="n">
-        <v>17.49710350821503</v>
+        <v>17.49710350821506</v>
       </c>
       <c r="Q42" t="n">
-        <v>11.69635032622284</v>
+        <v>11.69635032622286</v>
       </c>
       <c r="R42" t="n">
-        <v>5.689030209524829</v>
+        <v>5.689030209524839</v>
       </c>
       <c r="S42" t="n">
-        <v>1.701966864745523</v>
+        <v>1.701966864745526</v>
       </c>
       <c r="T42" t="n">
-        <v>0.3693288190557583</v>
+        <v>0.3693288190557589</v>
       </c>
       <c r="U42" t="n">
-        <v>0.006028217938886157</v>
+        <v>0.006028217938886168</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.07681860236875689</v>
+        <v>0.07681860236875702</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6829872101513117</v>
+        <v>0.6829872101513129</v>
       </c>
       <c r="I43" t="n">
-        <v>2.310144878507708</v>
+        <v>2.310144878507712</v>
       </c>
       <c r="J43" t="n">
-        <v>5.431075187471111</v>
+        <v>5.431075187471121</v>
       </c>
       <c r="K43" t="n">
-        <v>8.924924893388297</v>
+        <v>8.924924893388315</v>
       </c>
       <c r="L43" t="n">
-        <v>11.42083111944228</v>
+        <v>11.4208311194423</v>
       </c>
       <c r="M43" t="n">
-        <v>12.04166509676795</v>
+        <v>12.04166509676798</v>
       </c>
       <c r="N43" t="n">
-        <v>11.75534121521169</v>
+        <v>11.75534121521171</v>
       </c>
       <c r="O43" t="n">
-        <v>10.85796026935848</v>
+        <v>10.8579602693585</v>
       </c>
       <c r="P43" t="n">
-        <v>9.290860781035828</v>
+        <v>9.290860781035846</v>
       </c>
       <c r="Q43" t="n">
-        <v>6.432510421987452</v>
+        <v>6.432510421987464</v>
       </c>
       <c r="R43" t="n">
-        <v>3.454043702871559</v>
+        <v>3.454043702871565</v>
       </c>
       <c r="S43" t="n">
-        <v>1.338738734008245</v>
+        <v>1.338738734008247</v>
       </c>
       <c r="T43" t="n">
-        <v>0.3282249373937793</v>
+        <v>0.3282249373937799</v>
       </c>
       <c r="U43" t="n">
-        <v>0.00419010558375038</v>
+        <v>0.004190105583750388</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34704,25 +34704,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>400.9092955204429</v>
+      </c>
+      <c r="P2" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N2" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O2" t="n">
-        <v>441.8756042977812</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,19 +34780,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>506.6900639491206</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>474.8949538093261</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>522.0635703700256</v>
@@ -34801,7 +34801,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>135.5987266329975</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>10.70163254908636</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491203</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>460.0037840019794</v>
-      </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>522.0635703700256</v>
@@ -35193,7 +35193,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>147.5918456237788</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35269,13 +35269,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="Q9" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>460.4103598639381</v>
@@ -35500,19 +35500,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>26.64359211279304</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
         <v>667.7658302215033</v>
@@ -35737,13 +35737,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>688.3272054397147</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>700.9222136128019</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K23" t="n">
-        <v>565.3795935096417</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L23" t="n">
         <v>746.8144420202835</v>
@@ -36372,16 +36372,16 @@
         <v>791.3461665926758</v>
       </c>
       <c r="O23" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P23" t="n">
-        <v>559.1282394618717</v>
+        <v>559.1282394618715</v>
       </c>
       <c r="Q23" t="n">
-        <v>342.8985515906171</v>
+        <v>342.898551590617</v>
       </c>
       <c r="R23" t="n">
-        <v>51.72383635682954</v>
+        <v>51.72383635682953</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>432.2508850414078</v>
       </c>
       <c r="M24" t="n">
-        <v>421.6433884683613</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>906.3140743620672</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>732.8686174635599</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>19.65587256647164</v>
+        <v>19.65587256647163</v>
       </c>
       <c r="K25" t="n">
         <v>165.0383872390832</v>
@@ -36536,7 +36536,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q25" t="n">
-        <v>72.62243951543275</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K26" t="n">
-        <v>565.3795935096417</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L26" t="n">
         <v>746.8144420202835</v>
@@ -36609,16 +36609,16 @@
         <v>791.3461665926758</v>
       </c>
       <c r="O26" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P26" t="n">
-        <v>559.1282394618717</v>
+        <v>559.1282394618715</v>
       </c>
       <c r="Q26" t="n">
-        <v>342.8985515906171</v>
+        <v>342.898551590617</v>
       </c>
       <c r="R26" t="n">
-        <v>51.72383635682954</v>
+        <v>51.72383635682953</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>423.2137310958514</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>687.6609588258071</v>
       </c>
       <c r="M27" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>906.3140743620672</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>279.8033285417085</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>19.65587256647164</v>
+        <v>19.65587256647163</v>
       </c>
       <c r="K28" t="n">
         <v>165.0383872390832</v>
@@ -36773,7 +36773,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q28" t="n">
-        <v>72.62243951543275</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K29" t="n">
-        <v>565.3795935096417</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L29" t="n">
         <v>746.8144420202835</v>
@@ -36846,16 +36846,16 @@
         <v>791.3461665926758</v>
       </c>
       <c r="O29" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P29" t="n">
-        <v>559.1282394618717</v>
+        <v>559.1282394618715</v>
       </c>
       <c r="Q29" t="n">
-        <v>342.8985515906171</v>
+        <v>342.898551590617</v>
       </c>
       <c r="R29" t="n">
-        <v>51.72383635682954</v>
+        <v>51.72383635682953</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>906.3140743620672</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>279.8033285417085</v>
+        <v>432.2508850414078</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>19.65587256647164</v>
+        <v>19.65587256647163</v>
       </c>
       <c r="K31" t="n">
         <v>165.0383872390832</v>
@@ -37010,7 +37010,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.62243951543275</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K32" t="n">
-        <v>565.3795935096417</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L32" t="n">
         <v>746.8144420202835</v>
@@ -37083,16 +37083,16 @@
         <v>791.3461665926758</v>
       </c>
       <c r="O32" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P32" t="n">
-        <v>559.1282394618717</v>
+        <v>559.1282394618715</v>
       </c>
       <c r="Q32" t="n">
-        <v>342.8985515906171</v>
+        <v>342.898551590617</v>
       </c>
       <c r="R32" t="n">
-        <v>51.72383635682954</v>
+        <v>51.72383635682953</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K33" t="n">
         <v>475.2064198543362</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M33" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>710.9109830494397</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>35.54713057581765</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>19.65587256647164</v>
+        <v>19.65587256647163</v>
       </c>
       <c r="K34" t="n">
         <v>165.0383872390832</v>
@@ -37247,7 +37247,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.62243951543275</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K35" t="n">
-        <v>565.3795935096417</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L35" t="n">
         <v>746.8144420202835</v>
@@ -37320,16 +37320,16 @@
         <v>791.3461665926758</v>
       </c>
       <c r="O35" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P35" t="n">
-        <v>559.1282394618717</v>
+        <v>559.1282394618715</v>
       </c>
       <c r="Q35" t="n">
-        <v>342.8985515906171</v>
+        <v>342.898551590617</v>
       </c>
       <c r="R35" t="n">
-        <v>51.72383635682954</v>
+        <v>51.72383635682953</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>687.6609588258071</v>
       </c>
       <c r="M36" t="n">
-        <v>421.6433884683613</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>906.3140743620672</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>732.8686174635599</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>532.8841041320838</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>19.65587256647164</v>
+        <v>19.65587256647163</v>
       </c>
       <c r="K37" t="n">
         <v>165.0383872390832</v>
@@ -37484,7 +37484,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q37" t="n">
-        <v>72.62243951543275</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K38" t="n">
-        <v>565.3795935096417</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L38" t="n">
         <v>746.8144420202835</v>
@@ -37557,16 +37557,16 @@
         <v>791.3461665926758</v>
       </c>
       <c r="O38" t="n">
-        <v>678.9865331623263</v>
+        <v>678.9865331623262</v>
       </c>
       <c r="P38" t="n">
-        <v>559.1282394618717</v>
+        <v>559.1282394618715</v>
       </c>
       <c r="Q38" t="n">
-        <v>342.8985515906171</v>
+        <v>342.898551590617</v>
       </c>
       <c r="R38" t="n">
-        <v>51.72383635682954</v>
+        <v>51.72383635682953</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>649.3336579501779</v>
       </c>
       <c r="M39" t="n">
-        <v>169.0134849837735</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>906.3140743620672</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>732.8686174635599</v>
       </c>
       <c r="P39" t="n">
-        <v>584.8767928905686</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>365.0745974817616</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>35.54713057581765</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>19.65587256647164</v>
+        <v>19.65587256647163</v>
       </c>
       <c r="K40" t="n">
         <v>165.0383872390832</v>
@@ -37721,7 +37721,7 @@
         <v>217.0438307301392</v>
       </c>
       <c r="Q40" t="n">
-        <v>72.62243951543275</v>
+        <v>72.62243951543273</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37788,10 +37788,10 @@
         <v>746.8144420202835</v>
       </c>
       <c r="M41" t="n">
-        <v>814.2308786844779</v>
+        <v>814.2308786844781</v>
       </c>
       <c r="N41" t="n">
-        <v>791.3461665926758</v>
+        <v>791.3461665926759</v>
       </c>
       <c r="O41" t="n">
         <v>678.9865331623263</v>
@@ -37803,7 +37803,7 @@
         <v>342.8985515906171</v>
       </c>
       <c r="R41" t="n">
-        <v>51.72383635682954</v>
+        <v>51.72383635682957</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>432.2508850414076</v>
       </c>
       <c r="M42" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>565.6934794373894</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>584.8767928905686</v>
+        <v>584.8767928905687</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R42" t="n">
-        <v>35.54713057581765</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>19.65587256647164</v>
+        <v>19.65587256647165</v>
       </c>
       <c r="K43" t="n">
         <v>165.0383872390832</v>
       </c>
       <c r="L43" t="n">
-        <v>273.9431546346549</v>
+        <v>273.943154634655</v>
       </c>
       <c r="M43" t="n">
         <v>304.2275806932258</v>
       </c>
       <c r="N43" t="n">
-        <v>295.4308789871816</v>
+        <v>295.4308789871817</v>
       </c>
       <c r="O43" t="n">
         <v>273.0403949425647</v>
@@ -38040,7 +38040,7 @@
         <v>342.8985515906171</v>
       </c>
       <c r="R44" t="n">
-        <v>51.72383635682957</v>
+        <v>51.72383635682961</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>475.2064198543362</v>
       </c>
       <c r="L45" t="n">
-        <v>649.3336579501779</v>
+        <v>396.7037544655899</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>732.86861746356</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>584.8767928905687</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>365.0745974817616</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>35.54713057581766</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
